--- a/submission_URLs/springer/combined_springer_urls.xlsx
+++ b/submission_URLs/springer/combined_springer_urls.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1112">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1256,6 +1256,9 @@
     <t>1555-1938</t>
   </si>
   <si>
+    <t>http://www.springer.com/business+%26+management/entrepreneurship/journal/11365?detailsPage=pltci_1060457</t>
+  </si>
+  <si>
     <t>International Environmental Agreements-Politics Law and Economics</t>
   </si>
   <si>
@@ -1265,6 +1268,9 @@
     <t>1573-1553</t>
   </si>
   <si>
+    <t>http://www.springer.com/law/environmental/journal/10784?detailsPage=pltci_1291224</t>
+  </si>
+  <si>
     <t>International Journal for Educational and Vocational Guidance</t>
   </si>
   <si>
@@ -1274,6 +1280,9 @@
     <t>1573-1782</t>
   </si>
   <si>
+    <t>http://www.springer.com/education+%26+language/professional+%26+vocational+education/journal/10775?detailsPage=pltci_1060471</t>
+  </si>
+  <si>
     <t>INTERNATIONAL JOURNAL FOR PHILOSOPHY OF RELIGION</t>
   </si>
   <si>
@@ -1283,6 +1292,9 @@
     <t>1572-8684</t>
   </si>
   <si>
+    <t>http://www.springer.com/philosophy/journal/11153?detailsPage=pltci_1060803</t>
+  </si>
+  <si>
     <t>INTERNATIONAL JOURNAL OF BEHAVIORAL MEDICINE</t>
   </si>
   <si>
@@ -1292,6 +1304,9 @@
     <t>1532-7558</t>
   </si>
   <si>
+    <t>http://www.springer.com/cda/content/document/cda_downloaddocument/Instructions+for+Authors.pdf?SGWID=0-0-45-1635806-p173822310</t>
+  </si>
+  <si>
     <t>International Journal of Computer-Supported Collaborative Learning</t>
   </si>
   <si>
@@ -1301,6 +1316,9 @@
     <t>1556-1615</t>
   </si>
   <si>
+    <t>http://www.springer.com/education+%26+language/learning+%26+instruction/journal/11412?detailsPage=pltci_2593560</t>
+  </si>
+  <si>
     <t>INTERNATIONAL JOURNAL OF GAME THEORY</t>
   </si>
   <si>
@@ -1310,6 +1328,9 @@
     <t>1432-1270</t>
   </si>
   <si>
+    <t>http://www.springer.com/economics/economic+theory/journal/182?detailsPage=pltci_1060261</t>
+  </si>
+  <si>
     <t>International Journal of Health Economics and Management</t>
   </si>
   <si>
@@ -1319,6 +1340,9 @@
     <t>2199-9031</t>
   </si>
   <si>
+    <t>http://www.springer.com/public+health/journal/10754?detailsPage=pltci_1060216</t>
+  </si>
+  <si>
     <t>International Journal of Hindu Studies</t>
   </si>
   <si>
@@ -1328,6 +1352,9 @@
     <t>1574-9282</t>
   </si>
   <si>
+    <t>http://www.springer.com/religious+studies/journal/11407?detailsPage=pltci_3105413</t>
+  </si>
+  <si>
     <t>International Journal of Historical Archaeology</t>
   </si>
   <si>
@@ -1337,6 +1364,9 @@
     <t>1573-7748</t>
   </si>
   <si>
+    <t>http://www.springer.com/social+sciences/anthropology+%26+archaeology/journal/10761?detailsPage=pltci_164264</t>
+  </si>
+  <si>
     <t>International Journal of Mental Health and Addiction</t>
   </si>
   <si>
@@ -1346,6 +1376,9 @@
     <t>1557-1882</t>
   </si>
   <si>
+    <t>http://www.springer.com/public+health/journal/11469?detailsPage=pltci_726949</t>
+  </si>
+  <si>
     <t>International Journal of Public Health</t>
   </si>
   <si>
@@ -1358,6 +1391,9 @@
     <t>SWITZERLAND</t>
   </si>
   <si>
+    <t>http://www.springer.com/public+health/journal/38?detailsPage=pltci_3101848</t>
+  </si>
+  <si>
     <t>International Journal of Science and Mathematics Education</t>
   </si>
   <si>
@@ -1367,6 +1403,9 @@
     <t>1573-1774</t>
   </si>
   <si>
+    <t>http://www.springer.com/cda/content/document/cda_downloaddocument/IJSME+instructions+for+authors+2018.pdf?SGWID=0-0-45-883337-p35609452</t>
+  </si>
+  <si>
     <t>International Journal of the Classical Tradition</t>
   </si>
   <si>
@@ -1376,6 +1415,9 @@
     <t>1874-6292</t>
   </si>
   <si>
+    <t>http://www.springer.com/cultural+and+media+studies/journal/12138?detailsPage=pltci_2078007</t>
+  </si>
+  <si>
     <t>INTERNATIONAL TAX AND PUBLIC FINANCE</t>
   </si>
   <si>
@@ -1385,6 +1427,9 @@
     <t>1573-6970</t>
   </si>
   <si>
+    <t>http://www.springer.com/economics/public+finance/journal/10797?detailsPage=pltci_1060675</t>
+  </si>
+  <si>
     <t>Jewish History</t>
   </si>
   <si>
@@ -1394,6 +1439,9 @@
     <t>1572-8579</t>
   </si>
   <si>
+    <t>http://www.springer.com/history/journal/10835?detailsPage=pltci_2036450</t>
+  </si>
+  <si>
     <t>Journal for General Philosophy of Science</t>
   </si>
   <si>
@@ -1403,6 +1451,9 @@
     <t>1572-8587</t>
   </si>
   <si>
+    <t>http://www.springer.com/philosophy/epistemology+and+philosophy+of+science/journal/10838?detailsPage=pltci_2090713</t>
+  </si>
+  <si>
     <t>JOURNAL OF ABNORMAL CHILD PSYCHOLOGY</t>
   </si>
   <si>
@@ -1412,6 +1463,9 @@
     <t>1573-2835</t>
   </si>
   <si>
+    <t>http://www.springer.com/psychology/child+%26+school+psychology/journal/10802?detailsPage=pltci_1706856</t>
+  </si>
+  <si>
     <t>JOURNAL OF ADULT DEVELOPMENT</t>
   </si>
   <si>
@@ -1421,6 +1475,9 @@
     <t>1573-3440</t>
   </si>
   <si>
+    <t>http://www.springer.com/psychology/journal/10804?detailsPage=pltci_1747521</t>
+  </si>
+  <si>
     <t>JOURNAL OF AGRICULTURAL &amp; ENVIRONMENTAL ETHICS</t>
   </si>
   <si>
@@ -1430,6 +1487,9 @@
     <t>1573-322X</t>
   </si>
   <si>
+    <t>http://www.springer.com/philosophy/ethics+and+moral+philosophy/journal/10806?detailsPage=pltci_1060452</t>
+  </si>
+  <si>
     <t>JOURNAL OF ARCHAEOLOGICAL METHOD AND THEORY</t>
   </si>
   <si>
@@ -1439,6 +1499,9 @@
     <t>1573-7764</t>
   </si>
   <si>
+    <t>http://www.springer.com/social+sciences/anthropology+%26+archaeology/journal/10816?detailsPage=pltci_2107786</t>
+  </si>
+  <si>
     <t>JOURNAL OF ARCHAEOLOGICAL RESEARCH</t>
   </si>
   <si>
@@ -1448,6 +1511,9 @@
     <t>1573-7756</t>
   </si>
   <si>
+    <t>http://www.springer.com/social+sciences/anthropology+%26+archaeology/journal/10814?detailsPage=pltci_2496847</t>
+  </si>
+  <si>
     <t>JOURNAL OF AUTISM AND DEVELOPMENTAL DISORDERS</t>
   </si>
   <si>
@@ -1457,6 +1523,9 @@
     <t>1573-3432</t>
   </si>
   <si>
+    <t>http://www.springer.com/psychology/child+%26+school+psychology/journal/10803?detailsPage=pltci_3161162</t>
+  </si>
+  <si>
     <t>JOURNAL OF BEHAVIORAL HEALTH SERVICES &amp; RESEARCH</t>
   </si>
   <si>
@@ -1466,6 +1535,9 @@
     <t>1556-3308</t>
   </si>
   <si>
+    <t>http://www.springer.com/cda/content/document/cda_downloaddocument/JBHSR+Author+guidelines_v2017_final.pdf?SGWID=0-0-45-1624746-p57478821</t>
+  </si>
+  <si>
     <t>JOURNAL OF BEHAVIORAL MEDICINE</t>
   </si>
   <si>
@@ -1475,6 +1547,9 @@
     <t>1573-3521</t>
   </si>
   <si>
+    <t>http://www.springer.com/medicine/journal/10865?detailsPage=pltci_750446</t>
+  </si>
+  <si>
     <t>Journal of Bioethical Inquiry</t>
   </si>
   <si>
@@ -1487,6 +1562,9 @@
     <t>NEW ZEALAND</t>
   </si>
   <si>
+    <t>http://www.springer.com/medicine/journal/11673?detailsPage=pltci_3075967</t>
+  </si>
+  <si>
     <t>JOURNAL OF BUSINESS AND PSYCHOLOGY</t>
   </si>
   <si>
@@ -1496,6 +1574,9 @@
     <t>1573-353X</t>
   </si>
   <si>
+    <t>http://www.springer.com/cda/content/document/cda_downloaddocument/author+guidelines+2017.docx?SGWID=0-0-45-1611775-p35536793</t>
+  </si>
+  <si>
     <t>JOURNAL OF BUSINESS ETHICS</t>
   </si>
   <si>
@@ -1505,6 +1586,9 @@
     <t>1573-0697</t>
   </si>
   <si>
+    <t>http://www.springer.com/philosophy/ethics+and+moral+philosophy/journal/10551?detailsPage=pltci_2883224</t>
+  </si>
+  <si>
     <t>Journal of Cancer Survivorship</t>
   </si>
   <si>
@@ -1514,6 +1598,9 @@
     <t>1932-2267</t>
   </si>
   <si>
+    <t>http://www.springer.com/public+health/journal/11764?detailsPage=pltci_2451588</t>
+  </si>
+  <si>
     <t>Journal of Child and Family Studies</t>
   </si>
   <si>
@@ -1523,6 +1610,9 @@
     <t>1573-2843</t>
   </si>
   <si>
+    <t>http://www.springer.com/psychology/child+%26+school+psychology/journal/10826?detailsPage=pltci_727106</t>
+  </si>
+  <si>
     <t>JOURNAL OF CLASSIFICATION</t>
   </si>
   <si>
@@ -1532,6 +1622,9 @@
     <t>1432-1343</t>
   </si>
   <si>
+    <t>http://www.springer.com/statistics/journal/357?detailsPage=pltci_1060792</t>
+  </si>
+  <si>
     <t>JOURNAL OF CLINICAL PSYCHOLOGY IN MEDICAL SETTINGS</t>
   </si>
   <si>
@@ -1541,6 +1634,9 @@
     <t>1573-3572</t>
   </si>
   <si>
+    <t>http://www.springer.com/medicine/journal/10880?detailsPage=pltci_3645973</t>
+  </si>
+  <si>
     <t>JOURNAL OF COMMUNITY HEALTH</t>
   </si>
   <si>
@@ -1550,6 +1646,9 @@
     <t>1573-3610</t>
   </si>
   <si>
+    <t>http://www.springer.com/public+health/journal/10900?detailsPage=pltci_662246</t>
+  </si>
+  <si>
     <t>Journal of Comparative Germanic Linguistics</t>
   </si>
   <si>
@@ -1559,6 +1658,9 @@
     <t>1572-8552</t>
   </si>
   <si>
+    <t>http://www.springer.com/education+%26+language/linguistics/journal/10828?detailsPage=pltci_1060479</t>
+  </si>
+  <si>
     <t>Journal of Computing in Higher Education</t>
   </si>
   <si>
@@ -1568,6 +1670,9 @@
     <t>1867-1233</t>
   </si>
   <si>
+    <t>http://www.springer.com/education+%26+language/learning+%26+instruction/journal/12528?detailsPage=pltci_1060437</t>
+  </si>
+  <si>
     <t>Journal of Cultural Economics</t>
   </si>
   <si>
@@ -1577,6 +1682,9 @@
     <t>1573-6997</t>
   </si>
   <si>
+    <t>http://www.springer.com/economics/journal/10824?detailsPage=pltci_1060412</t>
+  </si>
+  <si>
     <t>JOURNAL OF DEVELOPMENTAL AND PHYSICAL DISABILITIES</t>
   </si>
   <si>
@@ -1586,6 +1694,9 @@
     <t>1573-3580</t>
   </si>
   <si>
+    <t>http://www.springer.com/psychology/child+%26+school+psychology/journal/10882?detailsPage=pltci_1707120</t>
+  </si>
+  <si>
     <t>JOURNAL OF EAST ASIAN LINGUISTICS</t>
   </si>
   <si>
@@ -1595,6 +1706,9 @@
     <t>1572-8560</t>
   </si>
   <si>
+    <t>http://www.springer.com/education+%26+language/linguistics/journal/10831?detailsPage=pltci_1060153</t>
+  </si>
+  <si>
     <t>JOURNAL OF ECONOMIC GROWTH</t>
   </si>
   <si>
@@ -1604,6 +1718,9 @@
     <t>1573-7020</t>
   </si>
   <si>
+    <t>http://www.springer.com/economics/journal/10887?detailsPage=pltci_1060281</t>
+  </si>
+  <si>
     <t>Journal of Economic Inequality</t>
   </si>
   <si>
@@ -1613,6 +1730,9 @@
     <t>1573-8701</t>
   </si>
   <si>
+    <t>http://www.springer.com/economics/journal/10888?detailsPage=pltci_2386542</t>
+  </si>
+  <si>
     <t>Journal of Economic Interaction and Coordination</t>
   </si>
   <si>
@@ -1622,6 +1742,9 @@
     <t>1860-7128</t>
   </si>
   <si>
+    <t>http://www.springer.com/economics/economic+theory/journal/11403?detailsPage=pltci_1060151</t>
+  </si>
+  <si>
     <t>Journal of Economics</t>
   </si>
   <si>
@@ -1634,6 +1757,9 @@
     <t>AUSTRIA</t>
   </si>
   <si>
+    <t>http://www.springer.com/economics/journal/712?detailsPage=pltci_1060161</t>
+  </si>
+  <si>
     <t>JOURNAL OF EVOLUTIONARY ECONOMICS</t>
   </si>
   <si>
@@ -1643,6 +1769,9 @@
     <t>1432-1386</t>
   </si>
   <si>
+    <t>http://www.springer.com/economics/journal/191?detailsPage=pltci_1060614</t>
+  </si>
+  <si>
     <t>Journal of Experimental Criminology</t>
   </si>
   <si>
@@ -1652,6 +1781,9 @@
     <t>1572-8315</t>
   </si>
   <si>
+    <t>http://www.springer.com/criminology/journal/11292?detailsPage=pltci_727222</t>
+  </si>
+  <si>
     <t>JOURNAL OF FAMILY VIOLENCE</t>
   </si>
   <si>
@@ -1661,6 +1793,9 @@
     <t>1573-2851</t>
   </si>
   <si>
+    <t>http://www.springer.com/medicine/journal/10896?detailsPage=pltci_2498017</t>
+  </si>
+  <si>
     <t>JOURNAL OF FINANCIAL SERVICES RESEARCH</t>
   </si>
   <si>
@@ -1670,6 +1805,9 @@
     <t>1573-0735</t>
   </si>
   <si>
+    <t>http://www.springer.com/finance/journal/10693?detailsPage=pltci_1060857</t>
+  </si>
+  <si>
     <t>JOURNAL OF GAMBLING STUDIES</t>
   </si>
   <si>
@@ -1688,6 +1826,9 @@
     <t>1435-5949</t>
   </si>
   <si>
+    <t>http://www.springer.com/economics/regional+science/journal/10109?detailsPage=pltci_1060321</t>
+  </si>
+  <si>
     <t>Journal of Happiness Studies</t>
   </si>
   <si>
@@ -1697,6 +1838,9 @@
     <t>1573-7780</t>
   </si>
   <si>
+    <t>http://www.springer.com/social+sciences/wellbeing+%26+quality-of-life/journal/10902?detailsPage=pltci_1060451</t>
+  </si>
+  <si>
     <t>Journal of Housing and the Built Environment</t>
   </si>
   <si>
@@ -1706,6 +1850,9 @@
     <t>1573-7772</t>
   </si>
   <si>
+    <t>http://www.springer.com/social+sciences/human+geography/journal/10901?detailsPage=pltci_3066347</t>
+  </si>
+  <si>
     <t>Journal of Immigrant and Minority Health</t>
   </si>
   <si>
@@ -1715,6 +1862,9 @@
     <t>1557-1920</t>
   </si>
   <si>
+    <t>http://www.springer.com/public+health/journal/10903?detailsPage=pltci_7124</t>
+  </si>
+  <si>
     <t>JOURNAL OF INDIAN PHILOSOPHY</t>
   </si>
   <si>
@@ -1724,6 +1874,9 @@
     <t>1573-0395</t>
   </si>
   <si>
+    <t>http://www.springer.com/philosophy/philosophical+traditions/journal/10781?detailsPage=pltci_1060498</t>
+  </si>
+  <si>
     <t>JOURNAL OF LABOR RESEARCH</t>
   </si>
   <si>
@@ -1733,6 +1886,9 @@
     <t>1936-4768</t>
   </si>
   <si>
+    <t>http://www.springer.com/social+sciences/journal/12122?detailsPage=pltci_1135109</t>
+  </si>
+  <si>
     <t>Journal of Logic Language and Information</t>
   </si>
   <si>
@@ -1742,6 +1898,9 @@
     <t>1572-9583</t>
   </si>
   <si>
+    <t>http://www.springer.com/philosophy/logic+and+philosophy+of+language/journal/10849?detailsPage=pltci_727306</t>
+  </si>
+  <si>
     <t>Journal of Maritime Archaeology</t>
   </si>
   <si>
@@ -1751,6 +1910,9 @@
     <t>1557-2293</t>
   </si>
   <si>
+    <t>http://www.springer.com/social+sciences/anthropology+%26+archaeology/journal/11457?detailsPage=pltci_856346</t>
+  </si>
+  <si>
     <t>JOURNAL OF NONVERBAL BEHAVIOR</t>
   </si>
   <si>
@@ -1760,6 +1922,9 @@
     <t>1573-3653</t>
   </si>
   <si>
+    <t>http://www.springer.com/psychology/personality+%26+social+psychology/journal/10919?detailsPage=pltci_2253216</t>
+  </si>
+  <si>
     <t>JOURNAL OF OCCUPATIONAL REHABILITATION</t>
   </si>
   <si>
@@ -1769,6 +1934,9 @@
     <t>1573-3688</t>
   </si>
   <si>
+    <t>http://www.springer.com/medicine/nursing/journal/10926?detailsPage=pltci_1814621</t>
+  </si>
+  <si>
     <t>JOURNAL OF PHILOSOPHICAL LOGIC</t>
   </si>
   <si>
@@ -1778,6 +1946,9 @@
     <t>1573-0433</t>
   </si>
   <si>
+    <t>http://www.springer.com/philosophy/logic+and+philosophy+of+language/journal/10992?detailsPage=pltci_2314664</t>
+  </si>
+  <si>
     <t>JOURNAL OF POPULATION ECONOMICS</t>
   </si>
   <si>
@@ -1787,6 +1958,9 @@
     <t>1432-1475</t>
   </si>
   <si>
+    <t>http://www.springer.com/economics/population/journal/148?detailsPage=pltci_2679889</t>
+  </si>
+  <si>
     <t>Journal of Primary Prevention</t>
   </si>
   <si>
@@ -1796,6 +1970,9 @@
     <t>1573-6547</t>
   </si>
   <si>
+    <t>http://www.springer.com/medicine/journal/10935?detailsPage=pltci_2686845</t>
+  </si>
+  <si>
     <t>JOURNAL OF PRODUCTIVITY ANALYSIS</t>
   </si>
   <si>
@@ -1805,6 +1982,9 @@
     <t>1573-0441</t>
   </si>
   <si>
+    <t>http://www.springer.com/economics/microeconomics/journal/11123?detailsPage=pltci_1060710</t>
+  </si>
+  <si>
     <t>JOURNAL OF PSYCHOLINGUISTIC RESEARCH</t>
   </si>
   <si>
@@ -1814,6 +1994,9 @@
     <t>1573-6555</t>
   </si>
   <si>
+    <t>http://www.springer.com/psychology/journal/10936?detailsPage=pltci_1945488</t>
+  </si>
+  <si>
     <t>JOURNAL OF PSYCHOPATHOLOGY AND BEHAVIORAL ASSESSMENT</t>
   </si>
   <si>
@@ -1823,6 +2006,9 @@
     <t>1573-3505</t>
   </si>
   <si>
+    <t>http://www.springer.com/psychology/journal/10862?detailsPage=pltci_2083502</t>
+  </si>
+  <si>
     <t>JOURNAL OF QUANTITATIVE CRIMINOLOGY</t>
   </si>
   <si>
@@ -1832,6 +2018,9 @@
     <t>1573-7799</t>
   </si>
   <si>
+    <t>http://www.springer.com/criminology/journal/10940?detailsPage=pltci_2976734</t>
+  </si>
+  <si>
     <t>Journal of Rational-Emotive and Cognitive-Behavior Therapy</t>
   </si>
   <si>
@@ -1841,6 +2030,9 @@
     <t>1573-6563</t>
   </si>
   <si>
+    <t>http://www.springer.com/psychology/journal/10942?detailsPage=pltci_2083155</t>
+  </si>
+  <si>
     <t>JOURNAL OF REAL ESTATE FINANCE AND ECONOMICS</t>
   </si>
   <si>
@@ -1850,6 +2042,9 @@
     <t>1573-045X</t>
   </si>
   <si>
+    <t>http://www.springer.com/economics/regional+science/journal/11146?detailsPage=pltci_1060759</t>
+  </si>
+  <si>
     <t>JOURNAL OF REGULATORY ECONOMICS</t>
   </si>
   <si>
@@ -1859,6 +2054,9 @@
     <t>1573-0468</t>
   </si>
   <si>
+    <t>http://www.springer.com/economics/microeconomics/journal/11149?detailsPage=pltci_1060762</t>
+  </si>
+  <si>
     <t>JOURNAL OF RELIGION &amp; HEALTH</t>
   </si>
   <si>
@@ -1868,6 +2066,9 @@
     <t>1573-6571</t>
   </si>
   <si>
+    <t>http://www.springer.com/public+health/journal/10943?detailsPage=pltci_758714</t>
+  </si>
+  <si>
     <t>JOURNAL OF RISK AND UNCERTAINTY</t>
   </si>
   <si>
@@ -1877,6 +2078,9 @@
     <t>1573-0476</t>
   </si>
   <si>
+    <t>http://www.springer.com/economics/economic+theory/journal/11166?detailsPage=pltci_1060188</t>
+  </si>
+  <si>
     <t>Journal of Science Education and Technology</t>
   </si>
   <si>
@@ -1886,6 +2090,9 @@
     <t>1573-1839</t>
   </si>
   <si>
+    <t>http://www.springer.com/education+%26+language/science+education/journal/10956?detailsPage=pltci_2261375</t>
+  </si>
+  <si>
     <t>JOURNAL OF TECHNOLOGY TRANSFER</t>
   </si>
   <si>
@@ -1895,6 +2102,9 @@
     <t>1573-7047</t>
   </si>
   <si>
+    <t>http://www.springer.com/business+%26+management/journal/10961?detailsPage=pltci_3173848</t>
+  </si>
+  <si>
     <t>JOURNAL OF THE ACADEMY OF MARKETING SCIENCE</t>
   </si>
   <si>
@@ -1904,6 +2114,9 @@
     <t>1552-7824</t>
   </si>
   <si>
+    <t>http://www.springer.com/cda/content/document/cda_downloaddocument/JAMS+Instructions+for+Authors+2015.pdf?SGWID=0-0-45-1536774-p173668805</t>
+  </si>
+  <si>
     <t>JOURNAL OF THE HISTORY OF BIOLOGY</t>
   </si>
   <si>
@@ -1913,6 +2126,9 @@
     <t>1573-0387</t>
   </si>
   <si>
+    <t>http://www.springer.com/history/journal/10739?detailsPage=pltci_1331329</t>
+  </si>
+  <si>
     <t>JOURNAL OF VALUE INQUIRY</t>
   </si>
   <si>
@@ -1922,6 +2138,9 @@
     <t>1573-0492</t>
   </si>
   <si>
+    <t>http://www.springer.com/cda/content/document/cda_downloaddocument/Style+Guidelines+Revised.pdf?SGWID=0-0-45-1633820-p35668873</t>
+  </si>
+  <si>
     <t>JOURNAL OF WORLD PREHISTORY</t>
   </si>
   <si>
@@ -1931,6 +2150,9 @@
     <t>1573-7802</t>
   </si>
   <si>
+    <t>http://www.springer.com/social+sciences/anthropology+%26+archaeology/journal/10963?detailsPage=pltci_2098848</t>
+  </si>
+  <si>
     <t>JOURNAL OF YOUTH AND ADOLESCENCE</t>
   </si>
   <si>
@@ -1940,6 +2162,9 @@
     <t>1573-6601</t>
   </si>
   <si>
+    <t>http://www.springer.com/psychology/child+%26+school+psychology/journal/10964?detailsPage=pltci_1692324</t>
+  </si>
+  <si>
     <t>Language Policy</t>
   </si>
   <si>
@@ -1949,6 +2174,9 @@
     <t>1573-1863</t>
   </si>
   <si>
+    <t>http://www.springer.com/education+%26+language/linguistics/journal/10993?detailsPage=pltci_2952070</t>
+  </si>
+  <si>
     <t>Latin American Economic Review</t>
   </si>
   <si>
@@ -1961,6 +2189,9 @@
     <t>MEXICO</t>
   </si>
   <si>
+    <t>https://latinaer.springeropen.com/submission-guidelines</t>
+  </si>
+  <si>
     <t>LAW AND PHILOSOPHY</t>
   </si>
   <si>
@@ -1970,6 +2201,9 @@
     <t>1573-0522</t>
   </si>
   <si>
+    <t>http://www.springer.com/law/journal/10982?detailsPage=pltci_838973</t>
+  </si>
+  <si>
     <t>LEARNING &amp; BEHAVIOR</t>
   </si>
   <si>
@@ -1979,6 +2213,9 @@
     <t>1543-4508</t>
   </si>
   <si>
+    <t>http://www.springer.com/psychology/journal/13420?detailsPage=pltci_1766718</t>
+  </si>
+  <si>
     <t>LINGUISTICS AND PHILOSOPHY</t>
   </si>
   <si>
@@ -1988,6 +2225,9 @@
     <t>1573-0549</t>
   </si>
   <si>
+    <t>http://www.springer.com/education+%26+language/linguistics/journal/10988?detailsPage=pltci_2474336</t>
+  </si>
+  <si>
     <t>MANAGEMENT INTERNATIONAL REVIEW</t>
   </si>
   <si>
@@ -1997,6 +2237,9 @@
     <t>1861-8901</t>
   </si>
   <si>
+    <t>http://www.springer.com/business+%26+management/journal/11575?detailsPage=pltci_2329480</t>
+  </si>
+  <si>
     <t>MARKETING LETTERS</t>
   </si>
   <si>
@@ -2006,6 +2249,9 @@
     <t>1573-059X</t>
   </si>
   <si>
+    <t>http://www.springer.com/business+%26+management/marketing/journal/11002?detailsPage=pltci_1060136</t>
+  </si>
+  <si>
     <t>MATERNAL AND CHILD HEALTH JOURNAL</t>
   </si>
   <si>
@@ -2015,6 +2261,9 @@
     <t>1573-6628</t>
   </si>
   <si>
+    <t>http://www.springer.com/public+health/journal/10995?detailsPage=pltci_185246</t>
+  </si>
+  <si>
     <t>Mathematics and Financial Economics</t>
   </si>
   <si>
@@ -2024,6 +2273,9 @@
     <t>1862-9660</t>
   </si>
   <si>
+    <t>http://www.springer.com/mathematics/quantitative+finance/journal/11579?detailsPage=pltci_1060395</t>
+  </si>
+  <si>
     <t>Medicine Health Care and Philosophy</t>
   </si>
   <si>
@@ -2033,6 +2285,9 @@
     <t>1572-8633</t>
   </si>
   <si>
+    <t>http://www.springer.com/philosophy/ethics+and+moral+philosophy/journal/11019?detailsPage=pltci_1211721</t>
+  </si>
+  <si>
     <t>MEMORY &amp; COGNITION</t>
   </si>
   <si>
@@ -2042,6 +2297,9 @@
     <t>1532-5946</t>
   </si>
   <si>
+    <t>http://www.springer.com/psychology/cognitive+psychology/journal/13421?detailsPage=pltci_2654849</t>
+  </si>
+  <si>
     <t>Metacognition and Learning</t>
   </si>
   <si>
@@ -2051,6 +2309,9 @@
     <t>1556-1631</t>
   </si>
   <si>
+    <t>http://www.springer.com/education+%26+language/learning+%26+instruction/journal/11409?detailsPage=pltci_1060832</t>
+  </si>
+  <si>
     <t>Mindfulness</t>
   </si>
   <si>
@@ -2060,6 +2321,9 @@
     <t>1868-8535</t>
   </si>
   <si>
+    <t>http://www.springer.com/psychology/cognitive+psychology/journal/12671?detailsPage=pltci_2554128</t>
+  </si>
+  <si>
     <t>MINERVA</t>
   </si>
   <si>
@@ -2069,6 +2333,9 @@
     <t>1573-1871</t>
   </si>
   <si>
+    <t>http://www.springer.com/social+sciences/sociology/journal/11024?detailsPage=pltci_2359757</t>
+  </si>
+  <si>
     <t>MOTIVATION AND EMOTION</t>
   </si>
   <si>
@@ -2078,6 +2345,9 @@
     <t>1573-6644</t>
   </si>
   <si>
+    <t>http://www.springer.com/psychology/journal/11031?detailsPage=pltci_7960</t>
+  </si>
+  <si>
     <t>NanoEthics</t>
   </si>
   <si>
@@ -2087,6 +2357,9 @@
     <t>1871-4765</t>
   </si>
   <si>
+    <t>http://www.springer.com/philosophy/ethics+and+moral+philosophy/journal/11569?detailsPage=pltci_2535174</t>
+  </si>
+  <si>
     <t>NATURAL LANGUAGE &amp; LINGUISTIC THEORY</t>
   </si>
   <si>
@@ -2096,6 +2369,9 @@
     <t>1573-0859</t>
   </si>
   <si>
+    <t>http://www.springer.com/education+%26+language/linguistics/journal/11049?detailsPage=pltci_3485290</t>
+  </si>
+  <si>
     <t>Natural Language Semantics</t>
   </si>
   <si>
@@ -2105,6 +2381,9 @@
     <t>1572-865X</t>
   </si>
   <si>
+    <t>http://www.springer.com/education+%26+language/linguistics/journal/11050?detailsPage=pltci_1060403</t>
+  </si>
+  <si>
     <t>Nebraska Symposium on Motivation</t>
   </si>
   <si>
@@ -2120,6 +2399,9 @@
     <t>1588-2810</t>
   </si>
   <si>
+    <t>http://www.springer.com/literature/journal/11059?detailsPage=pltci_1060798</t>
+  </si>
+  <si>
     <t>NEOPHILOLOGUS</t>
   </si>
   <si>
@@ -2129,6 +2411,9 @@
     <t>1572-8668</t>
   </si>
   <si>
+    <t>http://www.springer.com/education+%26+language/linguistics/journal/11061?detailsPage=pltci_1060840</t>
+  </si>
+  <si>
     <t>Neuroethics</t>
   </si>
   <si>
@@ -2138,6 +2423,9 @@
     <t>1874-5504</t>
   </si>
   <si>
+    <t>http://www.springer.com/philosophy/ethics+and+moral+philosophy/journal/12152?detailsPage=pltci_1060122</t>
+  </si>
+  <si>
     <t>NEUROPSYCHOLOGY REVIEW</t>
   </si>
   <si>
@@ -2147,6 +2435,9 @@
     <t>1573-6660</t>
   </si>
   <si>
+    <t>http://www.springer.com/biomed/neuroscience/journal/11065?detailsPage=pltci_1676521</t>
+  </si>
+  <si>
     <t>NTM</t>
   </si>
   <si>
@@ -2159,6 +2450,9 @@
     <t>German</t>
   </si>
   <si>
+    <t>http://www.springer.com/cda/content/document/cda_downloaddocument/NTM+Style+Sheet_2018_English+Version.pdf?SGWID=0-0-45-982757-p1177834</t>
+  </si>
+  <si>
     <t>NURSING HISTORY REVIEW</t>
   </si>
   <si>
@@ -2177,6 +2471,9 @@
     <t>1573-708X</t>
   </si>
   <si>
+    <t>http://www.springer.com/economics/international+economics/journal/11079?detailsPage=pltci_1060254</t>
+  </si>
+  <si>
     <t>Operations Management Research</t>
   </si>
   <si>
@@ -2186,6 +2483,9 @@
     <t>1936-9743</t>
   </si>
   <si>
+    <t>http://www.springer.com/business+%26+management/operations+research/journal/12063?detailsPage=pltci_1060140</t>
+  </si>
+  <si>
     <t>Phenomenology and the Cognitive Sciences</t>
   </si>
   <si>
@@ -2195,6 +2495,9 @@
     <t>1572-8676</t>
   </si>
   <si>
+    <t>http://www.springer.com/philosophy/philosophical+traditions/journal/11097?detailsPage=pltci_2567546</t>
+  </si>
+  <si>
     <t>PHILOSOPHIA</t>
   </si>
   <si>
@@ -2207,6 +2510,9 @@
     <t>ISRAEL</t>
   </si>
   <si>
+    <t>http://www.springer.com/philosophy/journal/11406?detailsPage=pltci_1060264</t>
+  </si>
+  <si>
     <t>PHILOSOPHICAL STUDIES</t>
   </si>
   <si>
@@ -2216,6 +2522,9 @@
     <t>1573-0883</t>
   </si>
   <si>
+    <t>http://www.springer.com/philosophy/journal/11098?detailsPage=pltci_1060374</t>
+  </si>
+  <si>
     <t>PHYSICS IN PERSPECTIVE</t>
   </si>
   <si>
@@ -2225,6 +2534,9 @@
     <t>1422-6960</t>
   </si>
   <si>
+    <t>http://www.springer.com/birkhauser/physics/journal/16?detailsPage=pltci_1118483</t>
+  </si>
+  <si>
     <t>POLICY SCIENCES</t>
   </si>
   <si>
@@ -2234,6 +2546,9 @@
     <t>1573-0891</t>
   </si>
   <si>
+    <t>http://www.springer.com/political+science/journal/11077?detailsPage=pltci_1060548</t>
+  </si>
+  <si>
     <t>POLITICAL BEHAVIOR</t>
   </si>
   <si>
@@ -2243,6 +2558,9 @@
     <t>1573-6687</t>
   </si>
   <si>
+    <t>http://www.springer.com/political+science/journal/11109?detailsPage=pltci_3466191</t>
+  </si>
+  <si>
     <t>POPULATION AND ENVIRONMENT</t>
   </si>
   <si>
@@ -2252,6 +2570,9 @@
     <t>1573-7810</t>
   </si>
   <si>
+    <t>http://www.springer.com/social+sciences/population+studies/journal/11111?detailsPage=pltci_1700422</t>
+  </si>
+  <si>
     <t>POPULATION RESEARCH AND POLICY REVIEW</t>
   </si>
   <si>
@@ -2261,6 +2582,9 @@
     <t>1573-7829</t>
   </si>
   <si>
+    <t>http://www.springer.com/social+sciences/population+studies/journal/11113?detailsPage=pltci_3409681</t>
+  </si>
+  <si>
     <t>Portuguese Economic Journal</t>
   </si>
   <si>
@@ -2270,6 +2594,9 @@
     <t>1617-9838</t>
   </si>
   <si>
+    <t>http://www.springer.com/economics/journal/10258?detailsPage=pltci_1060587</t>
+  </si>
+  <si>
     <t>PREVENTION SCIENCE</t>
   </si>
   <si>
@@ -2279,6 +2606,9 @@
     <t>1573-6695</t>
   </si>
   <si>
+    <t>http://www.springer.com/public+health/journal/11121?detailsPage=pltci_3574177</t>
+  </si>
+  <si>
     <t>Psicologia-Reflexao e Critica</t>
   </si>
   <si>
@@ -2288,6 +2618,9 @@
     <t>BRAZIL</t>
   </si>
   <si>
+    <t>https://springer.com/journal/41155</t>
+  </si>
+  <si>
     <t>PSYCHIATRIC QUARTERLY</t>
   </si>
   <si>
@@ -2297,6 +2630,9 @@
     <t>1573-6709</t>
   </si>
   <si>
+    <t>http://www.springer.com/medicine/psychiatry/journal/11126?detailsPage=pltci_1728809</t>
+  </si>
+  <si>
     <t>PSYCHOLOGICAL RECORD</t>
   </si>
   <si>
@@ -2306,6 +2642,9 @@
     <t>2163-3452</t>
   </si>
   <si>
+    <t>http://www.springer.com/psychology/journal/40732?detailsPage=pltci_2477479</t>
+  </si>
+  <si>
     <t>PSYCHOLOGICAL RESEARCH-PSYCHOLOGISCHE FORSCHUNG</t>
   </si>
   <si>
@@ -2315,6 +2654,9 @@
     <t>1430-2772</t>
   </si>
   <si>
+    <t>http://www.springer.com/psychology/journal/426?detailsPage=pltci_1060737</t>
+  </si>
+  <si>
     <t>PSYCHOMETRIKA</t>
   </si>
   <si>
@@ -2324,6 +2666,9 @@
     <t>1860-0980</t>
   </si>
   <si>
+    <t>http://www.springer.com/psychology/journal/11336?detailsPage=pltci_3187005</t>
+  </si>
+  <si>
     <t>PSYCHONOMIC BULLETIN &amp; REVIEW</t>
   </si>
   <si>
@@ -2333,6 +2678,9 @@
     <t>1531-5320</t>
   </si>
   <si>
+    <t>http://www.springer.com/psychology/cognitive+psychology/journal/13423?detailsPage=pltci_1766728</t>
+  </si>
+  <si>
     <t>PSYCHOTHERAPEUT</t>
   </si>
   <si>
@@ -2342,6 +2690,9 @@
     <t>1432-2080</t>
   </si>
   <si>
+    <t>http://www.springer.com/psychology/journal/278?detailsPage=pltci_1754309</t>
+  </si>
+  <si>
     <t>PUBLIC CHOICE</t>
   </si>
   <si>
@@ -2351,6 +2702,9 @@
     <t>1573-7101</t>
   </si>
   <si>
+    <t>http://www.springer.com/economics/public+finance/journal/11127?detailsPage=pltci_1406116</t>
+  </si>
+  <si>
     <t>QME-Quantitative Marketing and Economics</t>
   </si>
   <si>
@@ -2360,6 +2714,9 @@
     <t>1573-711X</t>
   </si>
   <si>
+    <t>http://www.springer.com/business+%26+management/marketing/journal/11129?detailsPage=pltci_1060745</t>
+  </si>
+  <si>
     <t>Qualitative Sociology</t>
   </si>
   <si>
@@ -2369,6 +2726,9 @@
     <t>1573-7837</t>
   </si>
   <si>
+    <t>http://www.springer.com/social+sciences/sociology/journal/11133?detailsPage=pltci_1706132</t>
+  </si>
+  <si>
     <t>QUALITY &amp; QUANTITY</t>
   </si>
   <si>
@@ -2378,6 +2738,9 @@
     <t>1573-7845</t>
   </si>
   <si>
+    <t>http://www.springer.com/political+science/journal/11135?detailsPage=pltci_2862921</t>
+  </si>
+  <si>
     <t>QUALITY OF LIFE RESEARCH</t>
   </si>
   <si>
@@ -2387,6 +2750,9 @@
     <t>1573-2649</t>
   </si>
   <si>
+    <t>http://www.springer.com/medicine/journal/11136?detailsPage=pltci_2299195</t>
+  </si>
+  <si>
     <t>READING AND WRITING</t>
   </si>
   <si>
@@ -2396,6 +2762,9 @@
     <t>1573-0905</t>
   </si>
   <si>
+    <t>http://www.springer.com/education+%26+language/linguistics/journal/11145?detailsPage=pltci_2951407</t>
+  </si>
+  <si>
     <t>Regional Environmental Change</t>
   </si>
   <si>
@@ -2405,6 +2774,9 @@
     <t>1436-378X</t>
   </si>
   <si>
+    <t>http://www.springer.com/cda/content/document/cda_downloaddocument/REEC+Author+Instructions_Feb+2018.pdf?SGWID=0-0-45-1528668-p1136209</t>
+  </si>
+  <si>
     <t>Research and Theory for Nursing Practice</t>
   </si>
   <si>
@@ -2423,6 +2795,9 @@
     <t>1573-188X</t>
   </si>
   <si>
+    <t>http://www.springer.com/education+%26+language/higher+education/journal/11162?detailsPage=pltci_1401270</t>
+  </si>
+  <si>
     <t>RESEARCH IN SCIENCE EDUCATION</t>
   </si>
   <si>
@@ -2432,6 +2807,9 @@
     <t>1573-1898</t>
   </si>
   <si>
+    <t>http://www.springer.com/education+%26+language/science+education/journal/11165?detailsPage=pltci_1687720</t>
+  </si>
+  <si>
     <t>REVIEW OF ACCOUNTING STUDIES</t>
   </si>
   <si>
@@ -2441,6 +2819,9 @@
     <t>1573-7136</t>
   </si>
   <si>
+    <t>http://www.springer.com/business+%26+management/accounting/journal/11142?detailsPage=pltci_1060430</t>
+  </si>
+  <si>
     <t>Review of Derivatives Research</t>
   </si>
   <si>
@@ -2450,6 +2831,9 @@
     <t>1573-7144</t>
   </si>
   <si>
+    <t>http://www.springer.com/finance/journal/11147?detailsPage=pltci_1060300</t>
+  </si>
+  <si>
     <t>Review of Economic Design</t>
   </si>
   <si>
@@ -2459,6 +2843,9 @@
     <t>1434-4750</t>
   </si>
   <si>
+    <t>https://springer.com/journal/10058</t>
+  </si>
+  <si>
     <t>Review of Economics of the Household</t>
   </si>
   <si>
@@ -2468,6 +2855,9 @@
     <t>1573-7152</t>
   </si>
   <si>
+    <t>http://www.springer.com/economics/microeconomics/journal/11150?detailsPage=pltci_1060567</t>
+  </si>
+  <si>
     <t>REVIEW OF INDUSTRIAL ORGANIZATION</t>
   </si>
   <si>
@@ -2477,6 +2867,9 @@
     <t>1573-7160</t>
   </si>
   <si>
+    <t>http://www.springer.com/economics/microeconomics/journal/11151?detailsPage=pltci_314625</t>
+  </si>
+  <si>
     <t>Review of International Organizations</t>
   </si>
   <si>
@@ -2486,6 +2879,9 @@
     <t>1559-744X</t>
   </si>
   <si>
+    <t>http://www.springer.com/social+sciences/journal/11558?detailsPage=pltci_1060118</t>
+  </si>
+  <si>
     <t>Review of Managerial Science</t>
   </si>
   <si>
@@ -2495,6 +2891,9 @@
     <t>1863-6691</t>
   </si>
   <si>
+    <t>http://www.springer.com/business+%26+management/journal/11846?detailsPage=pltci_1060398</t>
+  </si>
+  <si>
     <t>REVIEW OF RELIGIOUS RESEARCH</t>
   </si>
   <si>
@@ -2504,6 +2903,9 @@
     <t>2211-4866</t>
   </si>
   <si>
+    <t>http://www.springer.com/social+sciences/sociology/journal/13644?detailsPage=pltci_1616807</t>
+  </si>
+  <si>
     <t>REVIEW OF WORLD ECONOMICS</t>
   </si>
   <si>
@@ -2513,6 +2915,9 @@
     <t>1610-2886</t>
   </si>
   <si>
+    <t>http://www.springer.com/economics/international+economics/journal/10290?detailsPage=pltci_1060603</t>
+  </si>
+  <si>
     <t>Revue de Synthese</t>
   </si>
   <si>
@@ -2528,6 +2933,9 @@
     <t>French</t>
   </si>
   <si>
+    <t>https://springer.com/journal/11873</t>
+  </si>
+  <si>
     <t>RUSSIAN LINGUISTICS</t>
   </si>
   <si>
@@ -2537,6 +2945,9 @@
     <t>1572-8714</t>
   </si>
   <si>
+    <t>http://www.springer.com/education+%26+language/linguistics/journal/11185?detailsPage=pltci_745046</t>
+  </si>
+  <si>
     <t>School Mental Health</t>
   </si>
   <si>
@@ -2546,6 +2957,9 @@
     <t>1866-2633</t>
   </si>
   <si>
+    <t>http://www.springer.com/psychology/child+%26+school+psychology/journal/12310?detailsPage=pltci_2445862</t>
+  </si>
+  <si>
     <t>Science &amp; Education</t>
   </si>
   <si>
@@ -2555,6 +2969,9 @@
     <t>1573-1901</t>
   </si>
   <si>
+    <t>http://www.springer.com/education+%26+language/science+education/journal/11191?detailsPage=pltci_1060572</t>
+  </si>
+  <si>
     <t>SCIENCE AND ENGINEERING ETHICS</t>
   </si>
   <si>
@@ -2564,6 +2981,9 @@
     <t>1471-5546</t>
   </si>
   <si>
+    <t>http://www.springer.com/philosophy/ethics+and+moral+philosophy/journal/11948?detailsPage=pltci_1060616</t>
+  </si>
+  <si>
     <t>SCIENTOMETRICS</t>
   </si>
   <si>
@@ -2573,6 +2993,9 @@
     <t>1588-2861</t>
   </si>
   <si>
+    <t>http://www.springer.com/computer/database+management+%26+information+retrieval/journal/11192?detailsPage=pltci_1060302</t>
+  </si>
+  <si>
     <t>Series-Journal of the Spanish Economic Association</t>
   </si>
   <si>
@@ -2582,6 +3005,9 @@
     <t>1869-4195</t>
   </si>
   <si>
+    <t>http://www.springer.com/economics/journal/13209?detailsPage=pltci_1060488</t>
+  </si>
+  <si>
     <t>Service Business</t>
   </si>
   <si>
@@ -2591,6 +3017,9 @@
     <t>1862-8508</t>
   </si>
   <si>
+    <t>http://www.springer.com/business+%26+management/journal/11628?detailsPage=pltci_691846</t>
+  </si>
+  <si>
     <t>SEX ROLES</t>
   </si>
   <si>
@@ -2600,6 +3029,9 @@
     <t>1573-2762</t>
   </si>
   <si>
+    <t>http://www.springer.com/psychology/journal/11199?detailsPage=pltci_2861162</t>
+  </si>
+  <si>
     <t>SEXUALITY AND DISABILITY</t>
   </si>
   <si>
@@ -2609,6 +3041,9 @@
     <t>1573-6717</t>
   </si>
   <si>
+    <t>http://www.springer.com/psychology/journal/11195?detailsPage=pltci_1797421</t>
+  </si>
+  <si>
     <t>Sexuality Research and Social Policy</t>
   </si>
   <si>
@@ -2618,6 +3053,9 @@
     <t>1553-6610</t>
   </si>
   <si>
+    <t>http://www.springer.com/psychology/sexual+behaviour/journal/13178?detailsPage=pltci_980246</t>
+  </si>
+  <si>
     <t>SMALL BUSINESS ECONOMICS</t>
   </si>
   <si>
@@ -2627,6 +3065,9 @@
     <t>1573-0913</t>
   </si>
   <si>
+    <t>http://www.springer.com/business+%26+management/journal/11187?detailsPage=pltci_3570218</t>
+  </si>
+  <si>
     <t>SOCIAL CHOICE AND WELFARE</t>
   </si>
   <si>
@@ -2636,6 +3077,9 @@
     <t>1432-217X</t>
   </si>
   <si>
+    <t>http://www.springer.com/economics/economic+theory/journal/355?detailsPage=pltci_1060237</t>
+  </si>
+  <si>
     <t>SOCIAL INDICATORS RESEARCH</t>
   </si>
   <si>
@@ -2645,6 +3089,9 @@
     <t>1573-0921</t>
   </si>
   <si>
+    <t>http://www.springer.com/social+sciences/sociology/journal/11205?detailsPage=pltci_1064136</t>
+  </si>
+  <si>
     <t>Social Justice Research</t>
   </si>
   <si>
@@ -2654,6 +3101,9 @@
     <t>1573-6725</t>
   </si>
   <si>
+    <t>http://www.springer.com/psychology/personality+%26+social+psychology/journal/11211?detailsPage=pltci_1706322</t>
+  </si>
+  <si>
     <t>SOCIAL PSYCHIATRY AND PSYCHIATRIC EPIDEMIOLOGY</t>
   </si>
   <si>
@@ -2663,6 +3113,9 @@
     <t>1433-9285</t>
   </si>
   <si>
+    <t>http://www.springer.com/medicine/psychiatry/journal/127?detailsPage=pltci_1890267</t>
+  </si>
+  <si>
     <t>Social Psychology of Education</t>
   </si>
   <si>
@@ -2672,6 +3125,9 @@
     <t>1573-1928</t>
   </si>
   <si>
+    <t>http://www.springer.com/education+%26+language/journal/11218?detailsPage=pltci_1060484</t>
+  </si>
+  <si>
     <t>SOCIETY</t>
   </si>
   <si>
@@ -2681,6 +3137,9 @@
     <t>1936-4725</t>
   </si>
   <si>
+    <t>http://www.springer.com/social+sciences/sociology/journal/12115?detailsPage=pltci_331346</t>
+  </si>
+  <si>
     <t>Sophia</t>
   </si>
   <si>
@@ -2690,6 +3149,9 @@
     <t>1873-930X</t>
   </si>
   <si>
+    <t>http://www.springer.com/philosophy/journal/11841?detailsPage=pltci_1060766</t>
+  </si>
+  <si>
     <t>Studia Logica</t>
   </si>
   <si>
@@ -2699,6 +3161,9 @@
     <t>POLAND</t>
   </si>
   <si>
+    <t>http://www.springer.com/philosophy/logic+and+philosophy+of+language/journal/11225?detailsPage=pltci_1423126</t>
+  </si>
+  <si>
     <t>STUDIES IN COMPARATIVE INTERNATIONAL DEVELOPMENT</t>
   </si>
   <si>
@@ -2708,6 +3173,9 @@
     <t>1936-6167</t>
   </si>
   <si>
+    <t>http://www.springer.com/cda/content/document/cda_downloaddocument/SCID_Instructions+for+Authors.pdf?SGWID=0-0-45-1517779-p173732520</t>
+  </si>
+  <si>
     <t>STUDIES IN EAST EUROPEAN THOUGHT</t>
   </si>
   <si>
@@ -2717,6 +3185,9 @@
     <t>1573-0948</t>
   </si>
   <si>
+    <t>http://www.springer.com/philosophy/political+philosophy/journal/11212?detailsPage=pltci_2680015</t>
+  </si>
+  <si>
     <t>STUDIES IN PHILOSOPHY AND EDUCATION</t>
   </si>
   <si>
@@ -2726,6 +3197,9 @@
     <t>1573-191X</t>
   </si>
   <si>
+    <t>http://www.springer.com/education+%26+language/journal/11217?detailsPage=pltci_1757009</t>
+  </si>
+  <si>
     <t>SYNTHESE</t>
   </si>
   <si>
@@ -2735,6 +3209,9 @@
     <t>1573-0964</t>
   </si>
   <si>
+    <t>http://www.springer.com/philosophy/epistemology+and+philosophy+of+science/journal/11229?detailsPage=pltci_3398559</t>
+  </si>
+  <si>
     <t>SYSTEMIC PRACTICE AND ACTION RESEARCH</t>
   </si>
   <si>
@@ -2744,6 +3221,9 @@
     <t>1573-9295</t>
   </si>
   <si>
+    <t>http://www.springer.com/business+%26+management/journal/11213?detailsPage=pltci_1636320</t>
+  </si>
+  <si>
     <t>THEORETICAL MEDICINE AND BIOETHICS</t>
   </si>
   <si>
@@ -2753,6 +3233,9 @@
     <t>1573-1200</t>
   </si>
   <si>
+    <t>http://www.springer.com/philosophy/epistemology+and+philosophy+of+science/journal/11017?detailsPage=pltci_1060691</t>
+  </si>
+  <si>
     <t>THEORY AND DECISION</t>
   </si>
   <si>
@@ -2762,6 +3245,9 @@
     <t>1573-7187</t>
   </si>
   <si>
+    <t>http://www.springer.com/economics/economic+theory/journal/11238?detailsPage=pltci_1060554</t>
+  </si>
+  <si>
     <t>THEORY AND SOCIETY</t>
   </si>
   <si>
@@ -2771,6 +3257,9 @@
     <t>1573-7853</t>
   </si>
   <si>
+    <t>http://www.springer.com/social+sciences/sociology/journal/11186?detailsPage=pltci_1060747</t>
+  </si>
+  <si>
     <t>TOPOI-AN INTERNATIONAL REVIEW OF PHILOSOPHY</t>
   </si>
   <si>
@@ -2780,6 +3269,9 @@
     <t>1572-8749</t>
   </si>
   <si>
+    <t>http://www.springer.com/philosophy/journal/11245?detailsPage=pltci_3456159</t>
+  </si>
+  <si>
     <t>Translational Behavioral Medicine</t>
   </si>
   <si>
@@ -2789,6 +3281,9 @@
     <t>1613-9860</t>
   </si>
   <si>
+    <t>https://springer.com/journal/13142</t>
+  </si>
+  <si>
     <t>TRANSPORTATION</t>
   </si>
   <si>
@@ -2798,6 +3293,9 @@
     <t>1572-9435</t>
   </si>
   <si>
+    <t>http://www.springer.com/economics/regional+science/journal/11116?detailsPage=pltci_1060402</t>
+  </si>
+  <si>
     <t>Universal Access in the Information Society</t>
   </si>
   <si>
@@ -2807,6 +3305,9 @@
     <t>1615-5297</t>
   </si>
   <si>
+    <t>http://www.springer.com/computer/hci/journal/10209?detailsPage=pltci_1060147</t>
+  </si>
+  <si>
     <t>Violence and Victims</t>
   </si>
   <si>
@@ -2825,6 +3326,9 @@
     <t>1874-7868</t>
   </si>
   <si>
+    <t>http://www.springer.com/education+%26+language/professional+%26+vocational+education/journal/12186?detailsPage=pltci_1060397</t>
+  </si>
+  <si>
     <t>Voluntas</t>
   </si>
   <si>
@@ -2834,6 +3338,9 @@
     <t>1573-7888</t>
   </si>
   <si>
+    <t>http://www.springer.com/social+sciences/journal/11266?detailsPage=pltci_728157</t>
+  </si>
+  <si>
     <t>ZEITSCHRIFT FUR GERONTOLOGIE UND GERIATRIE</t>
   </si>
   <si>
@@ -2841,6 +3348,9 @@
   </si>
   <si>
     <t>1435-1269</t>
+  </si>
+  <si>
+    <t>http://www.springer.com/medicine/family/journal/391?detailsPage=pltci_1380209</t>
   </si>
 </sst>
 </file>
@@ -5487,20 +5997,22 @@
       <c r="F100" t="s">
         <v>12</v>
       </c>
-      <c r="G100" t="s"/>
+      <c r="G100" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D101" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E101" t="s">
         <v>33</v>
@@ -5508,20 +6020,22 @@
       <c r="F101" t="s">
         <v>12</v>
       </c>
-      <c r="G101" t="s"/>
+      <c r="G101" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D102" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E102" t="s">
         <v>33</v>
@@ -5529,20 +6043,22 @@
       <c r="F102" t="s">
         <v>12</v>
       </c>
-      <c r="G102" t="s"/>
+      <c r="G102" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D103" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E103" t="s">
         <v>33</v>
@@ -5550,20 +6066,22 @@
       <c r="F103" t="s">
         <v>12</v>
       </c>
-      <c r="G103" t="s"/>
+      <c r="G103" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D104" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
@@ -5571,20 +6089,22 @@
       <c r="F104" t="s">
         <v>12</v>
       </c>
-      <c r="G104" t="s"/>
+      <c r="G104" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D105" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
@@ -5592,20 +6112,22 @@
       <c r="F105" t="s">
         <v>12</v>
       </c>
-      <c r="G105" t="s"/>
+      <c r="G105" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D106" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="E106" t="s">
         <v>66</v>
@@ -5613,20 +6135,22 @@
       <c r="F106" t="s">
         <v>12</v>
       </c>
-      <c r="G106" t="s"/>
+      <c r="G106" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="D107" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
@@ -5634,20 +6158,22 @@
       <c r="F107" t="s">
         <v>12</v>
       </c>
-      <c r="G107" t="s"/>
+      <c r="G107" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="D108" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="E108" t="s">
         <v>33</v>
@@ -5655,20 +6181,22 @@
       <c r="F108" t="s">
         <v>12</v>
       </c>
-      <c r="G108" t="s"/>
+      <c r="G108" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="D109" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
@@ -5676,20 +6204,22 @@
       <c r="F109" t="s">
         <v>12</v>
       </c>
-      <c r="G109" t="s"/>
+      <c r="G109" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="D110" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
@@ -5697,41 +6227,45 @@
       <c r="F110" t="s">
         <v>12</v>
       </c>
-      <c r="G110" t="s"/>
+      <c r="G110" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="D111" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="E111" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="F111" t="s">
         <v>12</v>
       </c>
-      <c r="G111" t="s"/>
+      <c r="G111" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="D112" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="E112" t="s">
         <v>33</v>
@@ -5739,20 +6273,22 @@
       <c r="F112" t="s">
         <v>12</v>
       </c>
-      <c r="G112" t="s"/>
+      <c r="G112" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="D113" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="E113" t="s">
         <v>33</v>
@@ -5760,20 +6296,22 @@
       <c r="F113" t="s">
         <v>75</v>
       </c>
-      <c r="G113" t="s"/>
+      <c r="G113" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="D114" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="E114" t="s">
         <v>33</v>
@@ -5781,20 +6319,22 @@
       <c r="F114" t="s">
         <v>12</v>
       </c>
-      <c r="G114" t="s"/>
+      <c r="G114" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="D115" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="E115" t="s">
         <v>33</v>
@@ -5802,20 +6342,22 @@
       <c r="F115" t="s">
         <v>75</v>
       </c>
-      <c r="G115" t="s"/>
+      <c r="G115" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="D116" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="E116" t="s">
         <v>33</v>
@@ -5823,20 +6365,22 @@
       <c r="F116" t="s">
         <v>12</v>
       </c>
-      <c r="G116" t="s"/>
+      <c r="G116" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="D117" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
@@ -5844,20 +6388,22 @@
       <c r="F117" t="s">
         <v>12</v>
       </c>
-      <c r="G117" t="s"/>
+      <c r="G117" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="B118" t="s">
         <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="D118" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="E118" t="s">
         <v>11</v>
@@ -5865,20 +6411,22 @@
       <c r="F118" t="s">
         <v>12</v>
       </c>
-      <c r="G118" t="s"/>
+      <c r="G118" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="D119" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="E119" t="s">
         <v>33</v>
@@ -5886,20 +6434,22 @@
       <c r="F119" t="s">
         <v>12</v>
       </c>
-      <c r="G119" t="s"/>
+      <c r="G119" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="B120" t="s">
         <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="D120" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -5907,20 +6457,22 @@
       <c r="F120" t="s">
         <v>12</v>
       </c>
-      <c r="G120" t="s"/>
+      <c r="G120" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="B121" t="s">
         <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="D121" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
@@ -5928,20 +6480,22 @@
       <c r="F121" t="s">
         <v>12</v>
       </c>
-      <c r="G121" t="s"/>
+      <c r="G121" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="B122" t="s">
         <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="D122" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="E122" t="s">
         <v>11</v>
@@ -5949,20 +6503,22 @@
       <c r="F122" t="s">
         <v>12</v>
       </c>
-      <c r="G122" t="s"/>
+      <c r="G122" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="D123" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="E123" t="s">
         <v>11</v>
@@ -5970,20 +6526,22 @@
       <c r="F123" t="s">
         <v>12</v>
       </c>
-      <c r="G123" t="s"/>
+      <c r="G123" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="B124" t="s">
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="D124" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="E124" t="s">
         <v>11</v>
@@ -5991,41 +6549,45 @@
       <c r="F124" t="s">
         <v>12</v>
       </c>
-      <c r="G124" t="s"/>
+      <c r="G124" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="D125" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="E125" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="F125" t="s">
         <v>12</v>
       </c>
-      <c r="G125" t="s"/>
+      <c r="G125" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>491</v>
+        <v>517</v>
       </c>
       <c r="D126" t="s">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="E126" t="s">
         <v>11</v>
@@ -6033,20 +6595,22 @@
       <c r="F126" t="s">
         <v>12</v>
       </c>
-      <c r="G126" t="s"/>
+      <c r="G126" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
       <c r="D127" t="s">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="E127" t="s">
         <v>33</v>
@@ -6054,20 +6618,22 @@
       <c r="F127" t="s">
         <v>12</v>
       </c>
-      <c r="G127" t="s"/>
+      <c r="G127" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
       <c r="D128" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="E128" t="s">
         <v>11</v>
@@ -6075,20 +6641,22 @@
       <c r="F128" t="s">
         <v>12</v>
       </c>
-      <c r="G128" t="s"/>
+      <c r="G128" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="B129" t="s">
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="D129" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="E129" t="s">
         <v>11</v>
@@ -6096,20 +6664,22 @@
       <c r="F129" t="s">
         <v>12</v>
       </c>
-      <c r="G129" t="s"/>
+      <c r="G129" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="B130" t="s">
         <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="D130" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
@@ -6117,20 +6687,22 @@
       <c r="F130" t="s">
         <v>12</v>
       </c>
-      <c r="G130" t="s"/>
+      <c r="G130" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>505</v>
+        <v>536</v>
       </c>
       <c r="B131" t="s">
         <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>506</v>
+        <v>537</v>
       </c>
       <c r="D131" t="s">
-        <v>507</v>
+        <v>538</v>
       </c>
       <c r="E131" t="s">
         <v>11</v>
@@ -6138,20 +6710,22 @@
       <c r="F131" t="s">
         <v>12</v>
       </c>
-      <c r="G131" t="s"/>
+      <c r="G131" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>508</v>
+        <v>540</v>
       </c>
       <c r="B132" t="s">
         <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>509</v>
+        <v>541</v>
       </c>
       <c r="D132" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="E132" t="s">
         <v>11</v>
@@ -6159,20 +6733,22 @@
       <c r="F132" t="s">
         <v>12</v>
       </c>
-      <c r="G132" t="s"/>
+      <c r="G132" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>511</v>
+        <v>544</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>512</v>
+        <v>545</v>
       </c>
       <c r="D133" t="s">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="E133" t="s">
         <v>166</v>
@@ -6180,20 +6756,22 @@
       <c r="F133" t="s">
         <v>12</v>
       </c>
-      <c r="G133" t="s"/>
+      <c r="G133" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>514</v>
+        <v>548</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c r="D134" t="s">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -6201,20 +6779,22 @@
       <c r="F134" t="s">
         <v>12</v>
       </c>
-      <c r="G134" t="s"/>
+      <c r="G134" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>517</v>
+        <v>552</v>
       </c>
       <c r="B135" t="s">
         <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="D135" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="E135" t="s">
         <v>33</v>
@@ -6222,20 +6802,22 @@
       <c r="F135" t="s">
         <v>12</v>
       </c>
-      <c r="G135" t="s"/>
+      <c r="G135" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="B136" t="s">
         <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="D136" t="s">
-        <v>522</v>
+        <v>558</v>
       </c>
       <c r="E136" t="s">
         <v>11</v>
@@ -6243,20 +6825,22 @@
       <c r="F136" t="s">
         <v>12</v>
       </c>
-      <c r="G136" t="s"/>
+      <c r="G136" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>523</v>
+        <v>560</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>524</v>
+        <v>561</v>
       </c>
       <c r="D137" t="s">
-        <v>525</v>
+        <v>562</v>
       </c>
       <c r="E137" t="s">
         <v>33</v>
@@ -6264,20 +6848,22 @@
       <c r="F137" t="s">
         <v>12</v>
       </c>
-      <c r="G137" t="s"/>
+      <c r="G137" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>526</v>
+        <v>564</v>
       </c>
       <c r="B138" t="s">
         <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>527</v>
+        <v>565</v>
       </c>
       <c r="D138" t="s">
-        <v>528</v>
+        <v>566</v>
       </c>
       <c r="E138" t="s">
         <v>33</v>
@@ -6285,20 +6871,22 @@
       <c r="F138" t="s">
         <v>12</v>
       </c>
-      <c r="G138" t="s"/>
+      <c r="G138" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>529</v>
+        <v>568</v>
       </c>
       <c r="B139" t="s">
         <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="D139" t="s">
-        <v>531</v>
+        <v>570</v>
       </c>
       <c r="E139" t="s">
         <v>33</v>
@@ -6306,20 +6894,22 @@
       <c r="F139" t="s">
         <v>12</v>
       </c>
-      <c r="G139" t="s"/>
+      <c r="G139" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>532</v>
+        <v>572</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>533</v>
+        <v>573</v>
       </c>
       <c r="D140" t="s">
-        <v>534</v>
+        <v>574</v>
       </c>
       <c r="E140" t="s">
         <v>66</v>
@@ -6327,41 +6917,45 @@
       <c r="F140" t="s">
         <v>12</v>
       </c>
-      <c r="G140" t="s"/>
+      <c r="G140" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>535</v>
+        <v>576</v>
       </c>
       <c r="B141" t="s">
         <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>536</v>
+        <v>577</v>
       </c>
       <c r="D141" t="s">
-        <v>537</v>
+        <v>578</v>
       </c>
       <c r="E141" t="s">
-        <v>538</v>
+        <v>579</v>
       </c>
       <c r="F141" t="s">
         <v>75</v>
       </c>
-      <c r="G141" t="s"/>
+      <c r="G141" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>539</v>
+        <v>581</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>540</v>
+        <v>582</v>
       </c>
       <c r="D142" t="s">
-        <v>541</v>
+        <v>583</v>
       </c>
       <c r="E142" t="s">
         <v>66</v>
@@ -6369,20 +6963,22 @@
       <c r="F142" t="s">
         <v>12</v>
       </c>
-      <c r="G142" t="s"/>
+      <c r="G142" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>542</v>
+        <v>585</v>
       </c>
       <c r="B143" t="s">
         <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>543</v>
+        <v>586</v>
       </c>
       <c r="D143" t="s">
-        <v>544</v>
+        <v>587</v>
       </c>
       <c r="E143" t="s">
         <v>33</v>
@@ -6390,20 +6986,22 @@
       <c r="F143" t="s">
         <v>12</v>
       </c>
-      <c r="G143" t="s"/>
+      <c r="G143" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>545</v>
+        <v>589</v>
       </c>
       <c r="B144" t="s">
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>546</v>
+        <v>590</v>
       </c>
       <c r="D144" t="s">
-        <v>547</v>
+        <v>591</v>
       </c>
       <c r="E144" t="s">
         <v>11</v>
@@ -6411,20 +7009,22 @@
       <c r="F144" t="s">
         <v>12</v>
       </c>
-      <c r="G144" t="s"/>
+      <c r="G144" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>548</v>
+        <v>593</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>549</v>
+        <v>594</v>
       </c>
       <c r="D145" t="s">
-        <v>550</v>
+        <v>595</v>
       </c>
       <c r="E145" t="s">
         <v>11</v>
@@ -6432,20 +7032,22 @@
       <c r="F145" t="s">
         <v>12</v>
       </c>
-      <c r="G145" t="s"/>
+      <c r="G145" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>551</v>
+        <v>597</v>
       </c>
       <c r="B146" t="s">
         <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>552</v>
+        <v>598</v>
       </c>
       <c r="D146" t="s">
-        <v>553</v>
+        <v>599</v>
       </c>
       <c r="E146" t="s">
         <v>11</v>
@@ -6457,16 +7059,16 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>554</v>
+        <v>600</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D147" t="s">
-        <v>556</v>
+        <v>602</v>
       </c>
       <c r="E147" t="s">
         <v>66</v>
@@ -6474,20 +7076,22 @@
       <c r="F147" t="s">
         <v>12</v>
       </c>
-      <c r="G147" t="s"/>
+      <c r="G147" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>557</v>
+        <v>604</v>
       </c>
       <c r="B148" t="s">
         <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>558</v>
+        <v>605</v>
       </c>
       <c r="D148" t="s">
-        <v>559</v>
+        <v>606</v>
       </c>
       <c r="E148" t="s">
         <v>33</v>
@@ -6495,20 +7099,22 @@
       <c r="F148" t="s">
         <v>12</v>
       </c>
-      <c r="G148" t="s"/>
+      <c r="G148" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>560</v>
+        <v>608</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>561</v>
+        <v>609</v>
       </c>
       <c r="D149" t="s">
-        <v>562</v>
+        <v>610</v>
       </c>
       <c r="E149" t="s">
         <v>33</v>
@@ -6516,20 +7122,22 @@
       <c r="F149" t="s">
         <v>12</v>
       </c>
-      <c r="G149" t="s"/>
+      <c r="G149" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>563</v>
+        <v>612</v>
       </c>
       <c r="B150" t="s">
         <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>564</v>
+        <v>613</v>
       </c>
       <c r="D150" t="s">
-        <v>565</v>
+        <v>614</v>
       </c>
       <c r="E150" t="s">
         <v>11</v>
@@ -6537,20 +7145,22 @@
       <c r="F150" t="s">
         <v>12</v>
       </c>
-      <c r="G150" t="s"/>
+      <c r="G150" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>566</v>
+        <v>616</v>
       </c>
       <c r="B151" t="s">
         <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>567</v>
+        <v>617</v>
       </c>
       <c r="D151" t="s">
-        <v>568</v>
+        <v>618</v>
       </c>
       <c r="E151" t="s">
         <v>33</v>
@@ -6558,20 +7168,22 @@
       <c r="F151" t="s">
         <v>12</v>
       </c>
-      <c r="G151" t="s"/>
+      <c r="G151" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>569</v>
+        <v>620</v>
       </c>
       <c r="B152" t="s">
         <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>570</v>
+        <v>621</v>
       </c>
       <c r="D152" t="s">
-        <v>571</v>
+        <v>622</v>
       </c>
       <c r="E152" t="s">
         <v>11</v>
@@ -6579,20 +7191,22 @@
       <c r="F152" t="s">
         <v>12</v>
       </c>
-      <c r="G152" t="s"/>
+      <c r="G152" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>572</v>
+        <v>624</v>
       </c>
       <c r="B153" t="s">
         <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>573</v>
+        <v>625</v>
       </c>
       <c r="D153" t="s">
-        <v>574</v>
+        <v>626</v>
       </c>
       <c r="E153" t="s">
         <v>33</v>
@@ -6600,20 +7214,22 @@
       <c r="F153" t="s">
         <v>12</v>
       </c>
-      <c r="G153" t="s"/>
+      <c r="G153" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>575</v>
+        <v>628</v>
       </c>
       <c r="B154" t="s">
         <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>576</v>
+        <v>629</v>
       </c>
       <c r="D154" t="s">
-        <v>577</v>
+        <v>630</v>
       </c>
       <c r="E154" t="s">
         <v>11</v>
@@ -6621,20 +7237,22 @@
       <c r="F154" t="s">
         <v>12</v>
       </c>
-      <c r="G154" t="s"/>
+      <c r="G154" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>578</v>
+        <v>632</v>
       </c>
       <c r="B155" t="s">
         <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>579</v>
+        <v>633</v>
       </c>
       <c r="D155" t="s">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
@@ -6642,20 +7260,22 @@
       <c r="F155" t="s">
         <v>12</v>
       </c>
-      <c r="G155" t="s"/>
+      <c r="G155" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>581</v>
+        <v>636</v>
       </c>
       <c r="B156" t="s">
         <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>582</v>
+        <v>637</v>
       </c>
       <c r="D156" t="s">
-        <v>583</v>
+        <v>638</v>
       </c>
       <c r="E156" t="s">
         <v>11</v>
@@ -6663,20 +7283,22 @@
       <c r="F156" t="s">
         <v>12</v>
       </c>
-      <c r="G156" t="s"/>
+      <c r="G156" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>584</v>
+        <v>640</v>
       </c>
       <c r="B157" t="s">
         <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>585</v>
+        <v>641</v>
       </c>
       <c r="D157" t="s">
-        <v>586</v>
+        <v>642</v>
       </c>
       <c r="E157" t="s">
         <v>33</v>
@@ -6684,20 +7306,22 @@
       <c r="F157" t="s">
         <v>12</v>
       </c>
-      <c r="G157" t="s"/>
+      <c r="G157" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>587</v>
+        <v>644</v>
       </c>
       <c r="B158" t="s">
         <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>588</v>
+        <v>645</v>
       </c>
       <c r="D158" t="s">
-        <v>589</v>
+        <v>646</v>
       </c>
       <c r="E158" t="s">
         <v>11</v>
@@ -6705,20 +7329,22 @@
       <c r="F158" t="s">
         <v>12</v>
       </c>
-      <c r="G158" t="s"/>
+      <c r="G158" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>590</v>
+        <v>648</v>
       </c>
       <c r="B159" t="s">
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>591</v>
+        <v>649</v>
       </c>
       <c r="D159" t="s">
-        <v>592</v>
+        <v>650</v>
       </c>
       <c r="E159" t="s">
         <v>11</v>
@@ -6726,20 +7352,22 @@
       <c r="F159" t="s">
         <v>12</v>
       </c>
-      <c r="G159" t="s"/>
+      <c r="G159" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>593</v>
+        <v>652</v>
       </c>
       <c r="B160" t="s">
         <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>594</v>
+        <v>653</v>
       </c>
       <c r="D160" t="s">
-        <v>595</v>
+        <v>654</v>
       </c>
       <c r="E160" t="s">
         <v>33</v>
@@ -6747,20 +7375,22 @@
       <c r="F160" t="s">
         <v>12</v>
       </c>
-      <c r="G160" t="s"/>
+      <c r="G160" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>596</v>
+        <v>656</v>
       </c>
       <c r="B161" t="s">
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>597</v>
+        <v>657</v>
       </c>
       <c r="D161" t="s">
-        <v>598</v>
+        <v>658</v>
       </c>
       <c r="E161" t="s">
         <v>11</v>
@@ -6768,20 +7398,22 @@
       <c r="F161" t="s">
         <v>12</v>
       </c>
-      <c r="G161" t="s"/>
+      <c r="G161" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>599</v>
+        <v>660</v>
       </c>
       <c r="B162" t="s">
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>600</v>
+        <v>661</v>
       </c>
       <c r="D162" t="s">
-        <v>601</v>
+        <v>662</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
@@ -6789,20 +7421,22 @@
       <c r="F162" t="s">
         <v>12</v>
       </c>
-      <c r="G162" t="s"/>
+      <c r="G162" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>602</v>
+        <v>664</v>
       </c>
       <c r="B163" t="s">
         <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>603</v>
+        <v>665</v>
       </c>
       <c r="D163" t="s">
-        <v>604</v>
+        <v>666</v>
       </c>
       <c r="E163" t="s">
         <v>11</v>
@@ -6810,20 +7444,22 @@
       <c r="F163" t="s">
         <v>12</v>
       </c>
-      <c r="G163" t="s"/>
+      <c r="G163" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>605</v>
+        <v>668</v>
       </c>
       <c r="B164" t="s">
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>606</v>
+        <v>669</v>
       </c>
       <c r="D164" t="s">
-        <v>607</v>
+        <v>670</v>
       </c>
       <c r="E164" t="s">
         <v>11</v>
@@ -6831,20 +7467,22 @@
       <c r="F164" t="s">
         <v>12</v>
       </c>
-      <c r="G164" t="s"/>
+      <c r="G164" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>608</v>
+        <v>672</v>
       </c>
       <c r="B165" t="s">
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>609</v>
+        <v>673</v>
       </c>
       <c r="D165" t="s">
-        <v>610</v>
+        <v>674</v>
       </c>
       <c r="E165" t="s">
         <v>33</v>
@@ -6852,20 +7490,22 @@
       <c r="F165" t="s">
         <v>12</v>
       </c>
-      <c r="G165" t="s"/>
+      <c r="G165" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>611</v>
+        <v>676</v>
       </c>
       <c r="B166" t="s">
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>612</v>
+        <v>677</v>
       </c>
       <c r="D166" t="s">
-        <v>613</v>
+        <v>678</v>
       </c>
       <c r="E166" t="s">
         <v>33</v>
@@ -6873,20 +7513,22 @@
       <c r="F166" t="s">
         <v>12</v>
       </c>
-      <c r="G166" t="s"/>
+      <c r="G166" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>614</v>
+        <v>680</v>
       </c>
       <c r="B167" t="s">
         <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>615</v>
+        <v>681</v>
       </c>
       <c r="D167" t="s">
-        <v>616</v>
+        <v>682</v>
       </c>
       <c r="E167" t="s">
         <v>11</v>
@@ -6894,20 +7536,22 @@
       <c r="F167" t="s">
         <v>12</v>
       </c>
-      <c r="G167" t="s"/>
+      <c r="G167" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>617</v>
+        <v>684</v>
       </c>
       <c r="B168" t="s">
         <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>618</v>
+        <v>685</v>
       </c>
       <c r="D168" t="s">
-        <v>619</v>
+        <v>686</v>
       </c>
       <c r="E168" t="s">
         <v>11</v>
@@ -6915,20 +7559,22 @@
       <c r="F168" t="s">
         <v>12</v>
       </c>
-      <c r="G168" t="s"/>
+      <c r="G168" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>620</v>
+        <v>688</v>
       </c>
       <c r="B169" t="s">
         <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>621</v>
+        <v>689</v>
       </c>
       <c r="D169" t="s">
-        <v>622</v>
+        <v>690</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
@@ -6936,20 +7582,22 @@
       <c r="F169" t="s">
         <v>12</v>
       </c>
-      <c r="G169" t="s"/>
+      <c r="G169" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>623</v>
+        <v>692</v>
       </c>
       <c r="B170" t="s">
         <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>624</v>
+        <v>693</v>
       </c>
       <c r="D170" t="s">
-        <v>625</v>
+        <v>694</v>
       </c>
       <c r="E170" t="s">
         <v>11</v>
@@ -6957,20 +7605,22 @@
       <c r="F170" t="s">
         <v>12</v>
       </c>
-      <c r="G170" t="s"/>
+      <c r="G170" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>626</v>
+        <v>696</v>
       </c>
       <c r="B171" t="s">
         <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>627</v>
+        <v>697</v>
       </c>
       <c r="D171" t="s">
-        <v>628</v>
+        <v>698</v>
       </c>
       <c r="E171" t="s">
         <v>11</v>
@@ -6978,20 +7628,22 @@
       <c r="F171" t="s">
         <v>12</v>
       </c>
-      <c r="G171" t="s"/>
+      <c r="G171" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>629</v>
+        <v>700</v>
       </c>
       <c r="B172" t="s">
         <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>630</v>
+        <v>701</v>
       </c>
       <c r="D172" t="s">
-        <v>631</v>
+        <v>702</v>
       </c>
       <c r="E172" t="s">
         <v>33</v>
@@ -6999,20 +7651,22 @@
       <c r="F172" t="s">
         <v>12</v>
       </c>
-      <c r="G172" t="s"/>
+      <c r="G172" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
       <c r="B173" t="s">
         <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>633</v>
+        <v>705</v>
       </c>
       <c r="D173" t="s">
-        <v>634</v>
+        <v>706</v>
       </c>
       <c r="E173" t="s">
         <v>33</v>
@@ -7020,20 +7674,22 @@
       <c r="F173" t="s">
         <v>12</v>
       </c>
-      <c r="G173" t="s"/>
+      <c r="G173" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>635</v>
+        <v>708</v>
       </c>
       <c r="B174" t="s">
         <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>636</v>
+        <v>709</v>
       </c>
       <c r="D174" t="s">
-        <v>637</v>
+        <v>710</v>
       </c>
       <c r="E174" t="s">
         <v>11</v>
@@ -7041,20 +7697,22 @@
       <c r="F174" t="s">
         <v>12</v>
       </c>
-      <c r="G174" t="s"/>
+      <c r="G174" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>638</v>
+        <v>712</v>
       </c>
       <c r="B175" t="s">
         <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>639</v>
+        <v>713</v>
       </c>
       <c r="D175" t="s">
-        <v>640</v>
+        <v>714</v>
       </c>
       <c r="E175" t="s">
         <v>11</v>
@@ -7062,20 +7720,22 @@
       <c r="F175" t="s">
         <v>12</v>
       </c>
-      <c r="G175" t="s"/>
+      <c r="G175" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>641</v>
+        <v>716</v>
       </c>
       <c r="B176" t="s">
         <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>642</v>
+        <v>717</v>
       </c>
       <c r="D176" t="s">
-        <v>643</v>
+        <v>718</v>
       </c>
       <c r="E176" t="s">
         <v>33</v>
@@ -7083,41 +7743,45 @@
       <c r="F176" t="s">
         <v>12</v>
       </c>
-      <c r="G176" t="s"/>
+      <c r="G176" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>644</v>
+        <v>720</v>
       </c>
       <c r="B177" t="s">
         <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>645</v>
+        <v>721</v>
       </c>
       <c r="D177" t="s">
-        <v>646</v>
+        <v>722</v>
       </c>
       <c r="E177" t="s">
-        <v>647</v>
+        <v>723</v>
       </c>
       <c r="F177" t="s">
         <v>12</v>
       </c>
-      <c r="G177" t="s"/>
+      <c r="G177" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>648</v>
+        <v>725</v>
       </c>
       <c r="B178" t="s">
         <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>649</v>
+        <v>726</v>
       </c>
       <c r="D178" t="s">
-        <v>650</v>
+        <v>727</v>
       </c>
       <c r="E178" t="s">
         <v>33</v>
@@ -7125,20 +7789,22 @@
       <c r="F178" t="s">
         <v>12</v>
       </c>
-      <c r="G178" t="s"/>
+      <c r="G178" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>651</v>
+        <v>729</v>
       </c>
       <c r="B179" t="s">
         <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>652</v>
+        <v>730</v>
       </c>
       <c r="D179" t="s">
-        <v>653</v>
+        <v>731</v>
       </c>
       <c r="E179" t="s">
         <v>11</v>
@@ -7146,20 +7812,22 @@
       <c r="F179" t="s">
         <v>12</v>
       </c>
-      <c r="G179" t="s"/>
+      <c r="G179" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>654</v>
+        <v>733</v>
       </c>
       <c r="B180" t="s">
         <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>655</v>
+        <v>734</v>
       </c>
       <c r="D180" t="s">
-        <v>656</v>
+        <v>735</v>
       </c>
       <c r="E180" t="s">
         <v>33</v>
@@ -7167,20 +7835,22 @@
       <c r="F180" t="s">
         <v>12</v>
       </c>
-      <c r="G180" t="s"/>
+      <c r="G180" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>657</v>
+        <v>737</v>
       </c>
       <c r="B181" t="s">
         <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>658</v>
+        <v>738</v>
       </c>
       <c r="D181" t="s">
-        <v>659</v>
+        <v>739</v>
       </c>
       <c r="E181" t="s">
         <v>66</v>
@@ -7188,20 +7858,22 @@
       <c r="F181" t="s">
         <v>12</v>
       </c>
-      <c r="G181" t="s"/>
+      <c r="G181" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>660</v>
+        <v>741</v>
       </c>
       <c r="B182" t="s">
         <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>661</v>
+        <v>742</v>
       </c>
       <c r="D182" t="s">
-        <v>662</v>
+        <v>743</v>
       </c>
       <c r="E182" t="s">
         <v>11</v>
@@ -7209,20 +7881,22 @@
       <c r="F182" t="s">
         <v>12</v>
       </c>
-      <c r="G182" t="s"/>
+      <c r="G182" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>663</v>
+        <v>745</v>
       </c>
       <c r="B183" t="s">
         <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
       <c r="D183" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="E183" t="s">
         <v>11</v>
@@ -7230,20 +7904,22 @@
       <c r="F183" t="s">
         <v>12</v>
       </c>
-      <c r="G183" t="s"/>
+      <c r="G183" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>666</v>
+        <v>749</v>
       </c>
       <c r="B184" t="s">
         <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="D184" t="s">
-        <v>668</v>
+        <v>751</v>
       </c>
       <c r="E184" t="s">
         <v>66</v>
@@ -7251,20 +7927,22 @@
       <c r="F184" t="s">
         <v>12</v>
       </c>
-      <c r="G184" t="s"/>
+      <c r="G184" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>669</v>
+        <v>753</v>
       </c>
       <c r="B185" t="s">
         <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>670</v>
+        <v>754</v>
       </c>
       <c r="D185" t="s">
-        <v>671</v>
+        <v>755</v>
       </c>
       <c r="E185" t="s">
         <v>33</v>
@@ -7272,20 +7950,22 @@
       <c r="F185" t="s">
         <v>12</v>
       </c>
-      <c r="G185" t="s"/>
+      <c r="G185" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>672</v>
+        <v>757</v>
       </c>
       <c r="B186" t="s">
         <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>673</v>
+        <v>758</v>
       </c>
       <c r="D186" t="s">
-        <v>674</v>
+        <v>759</v>
       </c>
       <c r="E186" t="s">
         <v>11</v>
@@ -7293,20 +7973,22 @@
       <c r="F186" t="s">
         <v>12</v>
       </c>
-      <c r="G186" t="s"/>
+      <c r="G186" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>675</v>
+        <v>761</v>
       </c>
       <c r="B187" t="s">
         <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>676</v>
+        <v>762</v>
       </c>
       <c r="D187" t="s">
-        <v>677</v>
+        <v>763</v>
       </c>
       <c r="E187" t="s">
         <v>11</v>
@@ -7314,20 +7996,22 @@
       <c r="F187" t="s">
         <v>12</v>
       </c>
-      <c r="G187" t="s"/>
+      <c r="G187" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>678</v>
+        <v>765</v>
       </c>
       <c r="B188" t="s">
         <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>679</v>
+        <v>766</v>
       </c>
       <c r="D188" t="s">
-        <v>680</v>
+        <v>767</v>
       </c>
       <c r="E188" t="s">
         <v>33</v>
@@ -7335,20 +8019,22 @@
       <c r="F188" t="s">
         <v>12</v>
       </c>
-      <c r="G188" t="s"/>
+      <c r="G188" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>681</v>
+        <v>769</v>
       </c>
       <c r="B189" t="s">
         <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>682</v>
+        <v>770</v>
       </c>
       <c r="D189" t="s">
-        <v>683</v>
+        <v>771</v>
       </c>
       <c r="E189" t="s">
         <v>33</v>
@@ -7356,20 +8042,22 @@
       <c r="F189" t="s">
         <v>12</v>
       </c>
-      <c r="G189" t="s"/>
+      <c r="G189" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>684</v>
+        <v>773</v>
       </c>
       <c r="B190" t="s">
         <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>685</v>
+        <v>774</v>
       </c>
       <c r="D190" t="s">
-        <v>686</v>
+        <v>775</v>
       </c>
       <c r="E190" t="s">
         <v>11</v>
@@ -7377,20 +8065,22 @@
       <c r="F190" t="s">
         <v>12</v>
       </c>
-      <c r="G190" t="s"/>
+      <c r="G190" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>687</v>
+        <v>777</v>
       </c>
       <c r="B191" t="s">
         <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>688</v>
+        <v>778</v>
       </c>
       <c r="D191" t="s">
-        <v>689</v>
+        <v>779</v>
       </c>
       <c r="E191" t="s">
         <v>33</v>
@@ -7398,20 +8088,22 @@
       <c r="F191" t="s">
         <v>12</v>
       </c>
-      <c r="G191" t="s"/>
+      <c r="G191" t="s">
+        <v>780</v>
+      </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>690</v>
+        <v>781</v>
       </c>
       <c r="B192" t="s">
         <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>691</v>
+        <v>782</v>
       </c>
       <c r="D192" t="s">
-        <v>692</v>
+        <v>783</v>
       </c>
       <c r="E192" t="s">
         <v>33</v>
@@ -7419,20 +8111,22 @@
       <c r="F192" t="s">
         <v>12</v>
       </c>
-      <c r="G192" t="s"/>
+      <c r="G192" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>693</v>
+        <v>785</v>
       </c>
       <c r="B193" t="s">
         <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>694</v>
+        <v>786</v>
       </c>
       <c r="D193" t="s">
-        <v>695</v>
+        <v>787</v>
       </c>
       <c r="E193" t="s">
         <v>33</v>
@@ -7440,17 +8134,19 @@
       <c r="F193" t="s">
         <v>12</v>
       </c>
-      <c r="G193" t="s"/>
+      <c r="G193" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>696</v>
+        <v>789</v>
       </c>
       <c r="B194" t="s">
         <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>697</v>
+        <v>790</v>
       </c>
       <c r="D194" t="s"/>
       <c r="E194" t="s">
@@ -7463,16 +8159,16 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>698</v>
+        <v>791</v>
       </c>
       <c r="B195" t="s">
         <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>699</v>
+        <v>792</v>
       </c>
       <c r="D195" t="s">
-        <v>700</v>
+        <v>793</v>
       </c>
       <c r="E195" t="s">
         <v>33</v>
@@ -7480,20 +8176,22 @@
       <c r="F195" t="s">
         <v>75</v>
       </c>
-      <c r="G195" t="s"/>
+      <c r="G195" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>701</v>
+        <v>795</v>
       </c>
       <c r="B196" t="s">
         <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>702</v>
+        <v>796</v>
       </c>
       <c r="D196" t="s">
-        <v>703</v>
+        <v>797</v>
       </c>
       <c r="E196" t="s">
         <v>33</v>
@@ -7501,20 +8199,22 @@
       <c r="F196" t="s">
         <v>75</v>
       </c>
-      <c r="G196" t="s"/>
+      <c r="G196" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>704</v>
+        <v>799</v>
       </c>
       <c r="B197" t="s">
         <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>705</v>
+        <v>800</v>
       </c>
       <c r="D197" t="s">
-        <v>706</v>
+        <v>801</v>
       </c>
       <c r="E197" t="s">
         <v>33</v>
@@ -7522,20 +8222,22 @@
       <c r="F197" t="s">
         <v>12</v>
       </c>
-      <c r="G197" t="s"/>
+      <c r="G197" t="s">
+        <v>802</v>
+      </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>707</v>
+        <v>803</v>
       </c>
       <c r="B198" t="s">
         <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>708</v>
+        <v>804</v>
       </c>
       <c r="D198" t="s">
-        <v>709</v>
+        <v>805</v>
       </c>
       <c r="E198" t="s">
         <v>11</v>
@@ -7543,41 +8245,45 @@
       <c r="F198" t="s">
         <v>12</v>
       </c>
-      <c r="G198" t="s"/>
+      <c r="G198" t="s">
+        <v>806</v>
+      </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>710</v>
+        <v>807</v>
       </c>
       <c r="B199" t="s">
         <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>711</v>
+        <v>808</v>
       </c>
       <c r="D199" t="s">
-        <v>712</v>
+        <v>809</v>
       </c>
       <c r="E199" t="s">
         <v>66</v>
       </c>
       <c r="F199" t="s">
-        <v>713</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>810</v>
+      </c>
+      <c r="G199" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>714</v>
+        <v>812</v>
       </c>
       <c r="B200" t="s">
         <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>715</v>
+        <v>813</v>
       </c>
       <c r="D200" t="s">
-        <v>716</v>
+        <v>814</v>
       </c>
       <c r="E200" t="s">
         <v>11</v>
@@ -7589,16 +8295,16 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>717</v>
+        <v>815</v>
       </c>
       <c r="B201" t="s">
         <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>718</v>
+        <v>816</v>
       </c>
       <c r="D201" t="s">
-        <v>719</v>
+        <v>817</v>
       </c>
       <c r="E201" t="s">
         <v>33</v>
@@ -7606,20 +8312,22 @@
       <c r="F201" t="s">
         <v>12</v>
       </c>
-      <c r="G201" t="s"/>
+      <c r="G201" t="s">
+        <v>818</v>
+      </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>720</v>
+        <v>819</v>
       </c>
       <c r="B202" t="s">
         <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>721</v>
+        <v>820</v>
       </c>
       <c r="D202" t="s">
-        <v>722</v>
+        <v>821</v>
       </c>
       <c r="E202" t="s">
         <v>11</v>
@@ -7627,20 +8335,22 @@
       <c r="F202" t="s">
         <v>12</v>
       </c>
-      <c r="G202" t="s"/>
+      <c r="G202" t="s">
+        <v>822</v>
+      </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>723</v>
+        <v>823</v>
       </c>
       <c r="B203" t="s">
         <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>724</v>
+        <v>824</v>
       </c>
       <c r="D203" t="s">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="E203" t="s">
         <v>33</v>
@@ -7648,41 +8358,45 @@
       <c r="F203" t="s">
         <v>12</v>
       </c>
-      <c r="G203" t="s"/>
+      <c r="G203" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>726</v>
+        <v>827</v>
       </c>
       <c r="B204" t="s">
         <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>727</v>
+        <v>828</v>
       </c>
       <c r="D204" t="s">
-        <v>728</v>
+        <v>829</v>
       </c>
       <c r="E204" t="s">
-        <v>729</v>
+        <v>830</v>
       </c>
       <c r="F204" t="s">
         <v>12</v>
       </c>
-      <c r="G204" t="s"/>
+      <c r="G204" t="s">
+        <v>831</v>
+      </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>730</v>
+        <v>832</v>
       </c>
       <c r="B205" t="s">
         <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>731</v>
+        <v>833</v>
       </c>
       <c r="D205" t="s">
-        <v>732</v>
+        <v>834</v>
       </c>
       <c r="E205" t="s">
         <v>33</v>
@@ -7690,41 +8404,45 @@
       <c r="F205" t="s">
         <v>12</v>
       </c>
-      <c r="G205" t="s"/>
+      <c r="G205" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>733</v>
+        <v>836</v>
       </c>
       <c r="B206" t="s">
         <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>734</v>
+        <v>837</v>
       </c>
       <c r="D206" t="s">
-        <v>735</v>
+        <v>838</v>
       </c>
       <c r="E206" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="F206" t="s">
         <v>12</v>
       </c>
-      <c r="G206" t="s"/>
+      <c r="G206" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>736</v>
+        <v>840</v>
       </c>
       <c r="B207" t="s">
         <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>737</v>
+        <v>841</v>
       </c>
       <c r="D207" t="s">
-        <v>738</v>
+        <v>842</v>
       </c>
       <c r="E207" t="s">
         <v>33</v>
@@ -7732,20 +8450,22 @@
       <c r="F207" t="s">
         <v>12</v>
       </c>
-      <c r="G207" t="s"/>
+      <c r="G207" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>739</v>
+        <v>844</v>
       </c>
       <c r="B208" t="s">
         <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>740</v>
+        <v>845</v>
       </c>
       <c r="D208" t="s">
-        <v>741</v>
+        <v>846</v>
       </c>
       <c r="E208" t="s">
         <v>11</v>
@@ -7753,20 +8473,22 @@
       <c r="F208" t="s">
         <v>12</v>
       </c>
-      <c r="G208" t="s"/>
+      <c r="G208" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>742</v>
+        <v>848</v>
       </c>
       <c r="B209" t="s">
         <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>743</v>
+        <v>849</v>
       </c>
       <c r="D209" t="s">
-        <v>744</v>
+        <v>850</v>
       </c>
       <c r="E209" t="s">
         <v>33</v>
@@ -7774,20 +8496,22 @@
       <c r="F209" t="s">
         <v>12</v>
       </c>
-      <c r="G209" t="s"/>
+      <c r="G209" t="s">
+        <v>851</v>
+      </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>745</v>
+        <v>852</v>
       </c>
       <c r="B210" t="s">
         <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>746</v>
+        <v>853</v>
       </c>
       <c r="D210" t="s">
-        <v>747</v>
+        <v>854</v>
       </c>
       <c r="E210" t="s">
         <v>33</v>
@@ -7795,20 +8519,22 @@
       <c r="F210" t="s">
         <v>12</v>
       </c>
-      <c r="G210" t="s"/>
+      <c r="G210" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>748</v>
+        <v>856</v>
       </c>
       <c r="B211" t="s">
         <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>749</v>
+        <v>857</v>
       </c>
       <c r="D211" t="s">
-        <v>750</v>
+        <v>858</v>
       </c>
       <c r="E211" t="s">
         <v>66</v>
@@ -7816,20 +8542,22 @@
       <c r="F211" t="s">
         <v>12</v>
       </c>
-      <c r="G211" t="s"/>
+      <c r="G211" t="s">
+        <v>859</v>
+      </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>751</v>
+        <v>860</v>
       </c>
       <c r="B212" t="s">
         <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>752</v>
+        <v>861</v>
       </c>
       <c r="D212" t="s">
-        <v>753</v>
+        <v>862</v>
       </c>
       <c r="E212" t="s">
         <v>11</v>
@@ -7837,41 +8565,45 @@
       <c r="F212" t="s">
         <v>12</v>
       </c>
-      <c r="G212" t="s"/>
+      <c r="G212" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>754</v>
+        <v>864</v>
       </c>
       <c r="B213" t="s">
         <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>755</v>
+        <v>865</v>
       </c>
       <c r="D213" t="s">
-        <v>755</v>
+        <v>865</v>
       </c>
       <c r="E213" t="s">
-        <v>756</v>
+        <v>866</v>
       </c>
       <c r="F213" t="s">
         <v>75</v>
       </c>
-      <c r="G213" t="s"/>
+      <c r="G213" t="s">
+        <v>867</v>
+      </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>757</v>
+        <v>868</v>
       </c>
       <c r="B214" t="s">
         <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>758</v>
+        <v>869</v>
       </c>
       <c r="D214" t="s">
-        <v>759</v>
+        <v>870</v>
       </c>
       <c r="E214" t="s">
         <v>11</v>
@@ -7879,20 +8611,22 @@
       <c r="F214" t="s">
         <v>12</v>
       </c>
-      <c r="G214" t="s"/>
+      <c r="G214" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>760</v>
+        <v>872</v>
       </c>
       <c r="B215" t="s">
         <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>761</v>
+        <v>873</v>
       </c>
       <c r="D215" t="s">
-        <v>762</v>
+        <v>874</v>
       </c>
       <c r="E215" t="s">
         <v>11</v>
@@ -7900,20 +8634,22 @@
       <c r="F215" t="s">
         <v>12</v>
       </c>
-      <c r="G215" t="s"/>
+      <c r="G215" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>763</v>
+        <v>876</v>
       </c>
       <c r="B216" t="s">
         <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>764</v>
+        <v>877</v>
       </c>
       <c r="D216" t="s">
-        <v>765</v>
+        <v>878</v>
       </c>
       <c r="E216" t="s">
         <v>66</v>
@@ -7921,20 +8657,22 @@
       <c r="F216" t="s">
         <v>12</v>
       </c>
-      <c r="G216" t="s"/>
+      <c r="G216" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>766</v>
+        <v>880</v>
       </c>
       <c r="B217" t="s">
         <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>767</v>
+        <v>881</v>
       </c>
       <c r="D217" t="s">
-        <v>768</v>
+        <v>882</v>
       </c>
       <c r="E217" t="s">
         <v>11</v>
@@ -7942,20 +8680,22 @@
       <c r="F217" t="s">
         <v>12</v>
       </c>
-      <c r="G217" t="s"/>
+      <c r="G217" t="s">
+        <v>883</v>
+      </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>769</v>
+        <v>884</v>
       </c>
       <c r="B218" t="s">
         <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>770</v>
+        <v>885</v>
       </c>
       <c r="D218" t="s">
-        <v>771</v>
+        <v>886</v>
       </c>
       <c r="E218" t="s">
         <v>11</v>
@@ -7963,41 +8703,45 @@
       <c r="F218" t="s">
         <v>12</v>
       </c>
-      <c r="G218" t="s"/>
+      <c r="G218" t="s">
+        <v>887</v>
+      </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>772</v>
+        <v>888</v>
       </c>
       <c r="B219" t="s">
         <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>773</v>
+        <v>889</v>
       </c>
       <c r="D219" t="s">
-        <v>774</v>
+        <v>890</v>
       </c>
       <c r="E219" t="s">
         <v>66</v>
       </c>
       <c r="F219" t="s">
-        <v>713</v>
-      </c>
-      <c r="G219" t="s"/>
+        <v>810</v>
+      </c>
+      <c r="G219" t="s">
+        <v>891</v>
+      </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>775</v>
+        <v>892</v>
       </c>
       <c r="B220" t="s">
         <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>776</v>
+        <v>893</v>
       </c>
       <c r="D220" t="s">
-        <v>777</v>
+        <v>894</v>
       </c>
       <c r="E220" t="s">
         <v>11</v>
@@ -8005,20 +8749,22 @@
       <c r="F220" t="s">
         <v>12</v>
       </c>
-      <c r="G220" t="s"/>
+      <c r="G220" t="s">
+        <v>895</v>
+      </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>778</v>
+        <v>896</v>
       </c>
       <c r="B221" t="s">
         <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="D221" t="s">
-        <v>780</v>
+        <v>898</v>
       </c>
       <c r="E221" t="s">
         <v>11</v>
@@ -8026,20 +8772,22 @@
       <c r="F221" t="s">
         <v>12</v>
       </c>
-      <c r="G221" t="s"/>
+      <c r="G221" t="s">
+        <v>899</v>
+      </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>781</v>
+        <v>900</v>
       </c>
       <c r="B222" t="s">
         <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>782</v>
+        <v>901</v>
       </c>
       <c r="D222" t="s">
-        <v>783</v>
+        <v>902</v>
       </c>
       <c r="E222" t="s">
         <v>11</v>
@@ -8047,20 +8795,22 @@
       <c r="F222" t="s">
         <v>12</v>
       </c>
-      <c r="G222" t="s"/>
+      <c r="G222" t="s">
+        <v>903</v>
+      </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>784</v>
+        <v>904</v>
       </c>
       <c r="B223" t="s">
         <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>785</v>
+        <v>905</v>
       </c>
       <c r="D223" t="s">
-        <v>786</v>
+        <v>906</v>
       </c>
       <c r="E223" t="s">
         <v>33</v>
@@ -8068,20 +8818,22 @@
       <c r="F223" t="s">
         <v>12</v>
       </c>
-      <c r="G223" t="s"/>
+      <c r="G223" t="s">
+        <v>907</v>
+      </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>787</v>
+        <v>908</v>
       </c>
       <c r="B224" t="s">
         <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>788</v>
+        <v>909</v>
       </c>
       <c r="D224" t="s">
-        <v>789</v>
+        <v>910</v>
       </c>
       <c r="E224" t="s">
         <v>33</v>
@@ -8089,20 +8841,22 @@
       <c r="F224" t="s">
         <v>12</v>
       </c>
-      <c r="G224" t="s"/>
+      <c r="G224" t="s">
+        <v>911</v>
+      </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>790</v>
+        <v>912</v>
       </c>
       <c r="B225" t="s">
         <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>791</v>
+        <v>913</v>
       </c>
       <c r="D225" t="s">
-        <v>792</v>
+        <v>914</v>
       </c>
       <c r="E225" t="s">
         <v>33</v>
@@ -8110,20 +8864,22 @@
       <c r="F225" t="s">
         <v>12</v>
       </c>
-      <c r="G225" t="s"/>
+      <c r="G225" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>793</v>
+        <v>916</v>
       </c>
       <c r="B226" t="s">
         <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>794</v>
+        <v>917</v>
       </c>
       <c r="D226" t="s">
-        <v>795</v>
+        <v>918</v>
       </c>
       <c r="E226" t="s">
         <v>66</v>
@@ -8131,20 +8887,22 @@
       <c r="F226" t="s">
         <v>12</v>
       </c>
-      <c r="G226" t="s"/>
+      <c r="G226" t="s">
+        <v>919</v>
+      </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>796</v>
+        <v>920</v>
       </c>
       <c r="B227" t="s">
         <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>797</v>
+        <v>921</v>
       </c>
       <c r="D227" t="s">
-        <v>798</v>
+        <v>922</v>
       </c>
       <c r="E227" t="s">
         <v>11</v>
@@ -8156,16 +8914,16 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>799</v>
+        <v>923</v>
       </c>
       <c r="B228" t="s">
         <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>800</v>
+        <v>924</v>
       </c>
       <c r="D228" t="s">
-        <v>801</v>
+        <v>925</v>
       </c>
       <c r="E228" t="s">
         <v>33</v>
@@ -8173,20 +8931,22 @@
       <c r="F228" t="s">
         <v>12</v>
       </c>
-      <c r="G228" t="s"/>
+      <c r="G228" t="s">
+        <v>926</v>
+      </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>802</v>
+        <v>927</v>
       </c>
       <c r="B229" t="s">
         <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>803</v>
+        <v>928</v>
       </c>
       <c r="D229" t="s">
-        <v>804</v>
+        <v>929</v>
       </c>
       <c r="E229" t="s">
         <v>33</v>
@@ -8194,20 +8954,22 @@
       <c r="F229" t="s">
         <v>12</v>
       </c>
-      <c r="G229" t="s"/>
+      <c r="G229" t="s">
+        <v>930</v>
+      </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>805</v>
+        <v>931</v>
       </c>
       <c r="B230" t="s">
         <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>806</v>
+        <v>932</v>
       </c>
       <c r="D230" t="s">
-        <v>807</v>
+        <v>933</v>
       </c>
       <c r="E230" t="s">
         <v>33</v>
@@ -8215,20 +8977,22 @@
       <c r="F230" t="s">
         <v>12</v>
       </c>
-      <c r="G230" t="s"/>
+      <c r="G230" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>808</v>
+        <v>935</v>
       </c>
       <c r="B231" t="s">
         <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>809</v>
+        <v>936</v>
       </c>
       <c r="D231" t="s">
-        <v>810</v>
+        <v>937</v>
       </c>
       <c r="E231" t="s">
         <v>11</v>
@@ -8236,20 +9000,22 @@
       <c r="F231" t="s">
         <v>12</v>
       </c>
-      <c r="G231" t="s"/>
+      <c r="G231" t="s">
+        <v>938</v>
+      </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>811</v>
+        <v>939</v>
       </c>
       <c r="B232" t="s">
         <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>812</v>
+        <v>940</v>
       </c>
       <c r="D232" t="s">
-        <v>813</v>
+        <v>941</v>
       </c>
       <c r="E232" t="s">
         <v>66</v>
@@ -8257,20 +9023,22 @@
       <c r="F232" t="s">
         <v>12</v>
       </c>
-      <c r="G232" t="s"/>
+      <c r="G232" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>814</v>
+        <v>943</v>
       </c>
       <c r="B233" t="s">
         <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>815</v>
+        <v>944</v>
       </c>
       <c r="D233" t="s">
-        <v>816</v>
+        <v>945</v>
       </c>
       <c r="E233" t="s">
         <v>11</v>
@@ -8278,20 +9046,22 @@
       <c r="F233" t="s">
         <v>12</v>
       </c>
-      <c r="G233" t="s"/>
+      <c r="G233" t="s">
+        <v>946</v>
+      </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>817</v>
+        <v>947</v>
       </c>
       <c r="B234" t="s">
         <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>818</v>
+        <v>948</v>
       </c>
       <c r="D234" t="s">
-        <v>819</v>
+        <v>949</v>
       </c>
       <c r="E234" t="s">
         <v>33</v>
@@ -8299,20 +9069,22 @@
       <c r="F234" t="s">
         <v>12</v>
       </c>
-      <c r="G234" t="s"/>
+      <c r="G234" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>820</v>
+        <v>951</v>
       </c>
       <c r="B235" t="s">
         <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>821</v>
+        <v>952</v>
       </c>
       <c r="D235" t="s">
-        <v>822</v>
+        <v>953</v>
       </c>
       <c r="E235" t="s">
         <v>11</v>
@@ -8320,20 +9092,22 @@
       <c r="F235" t="s">
         <v>12</v>
       </c>
-      <c r="G235" t="s"/>
+      <c r="G235" t="s">
+        <v>954</v>
+      </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>823</v>
+        <v>955</v>
       </c>
       <c r="B236" t="s">
         <v>8</v>
       </c>
       <c r="C236" t="s">
-        <v>824</v>
+        <v>956</v>
       </c>
       <c r="D236" t="s">
-        <v>825</v>
+        <v>957</v>
       </c>
       <c r="E236" t="s">
         <v>66</v>
@@ -8341,20 +9115,22 @@
       <c r="F236" t="s">
         <v>12</v>
       </c>
-      <c r="G236" t="s"/>
+      <c r="G236" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>826</v>
+        <v>959</v>
       </c>
       <c r="B237" t="s">
         <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>827</v>
+        <v>960</v>
       </c>
       <c r="D237" t="s">
-        <v>828</v>
+        <v>961</v>
       </c>
       <c r="E237" t="s">
         <v>11</v>
@@ -8362,20 +9138,22 @@
       <c r="F237" t="s">
         <v>12</v>
       </c>
-      <c r="G237" t="s"/>
+      <c r="G237" t="s">
+        <v>962</v>
+      </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" t="s">
-        <v>829</v>
+        <v>963</v>
       </c>
       <c r="B238" t="s">
         <v>8</v>
       </c>
       <c r="C238" t="s">
-        <v>830</v>
+        <v>964</v>
       </c>
       <c r="D238" t="s">
-        <v>831</v>
+        <v>965</v>
       </c>
       <c r="E238" t="s">
         <v>66</v>
@@ -8383,41 +9161,45 @@
       <c r="F238" t="s">
         <v>12</v>
       </c>
-      <c r="G238" t="s"/>
+      <c r="G238" t="s">
+        <v>966</v>
+      </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>832</v>
+        <v>967</v>
       </c>
       <c r="B239" t="s">
         <v>8</v>
       </c>
       <c r="C239" t="s">
-        <v>833</v>
+        <v>968</v>
       </c>
       <c r="D239" t="s">
-        <v>834</v>
+        <v>969</v>
       </c>
       <c r="E239" t="s">
-        <v>835</v>
+        <v>970</v>
       </c>
       <c r="F239" t="s">
-        <v>836</v>
-      </c>
-      <c r="G239" t="s"/>
+        <v>971</v>
+      </c>
+      <c r="G239" t="s">
+        <v>972</v>
+      </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" t="s">
-        <v>837</v>
+        <v>973</v>
       </c>
       <c r="B240" t="s">
         <v>8</v>
       </c>
       <c r="C240" t="s">
-        <v>838</v>
+        <v>974</v>
       </c>
       <c r="D240" t="s">
-        <v>839</v>
+        <v>975</v>
       </c>
       <c r="E240" t="s">
         <v>33</v>
@@ -8425,20 +9207,22 @@
       <c r="F240" t="s">
         <v>75</v>
       </c>
-      <c r="G240" t="s"/>
+      <c r="G240" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>840</v>
+        <v>977</v>
       </c>
       <c r="B241" t="s">
         <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>841</v>
+        <v>978</v>
       </c>
       <c r="D241" t="s">
-        <v>842</v>
+        <v>979</v>
       </c>
       <c r="E241" t="s">
         <v>11</v>
@@ -8446,20 +9230,22 @@
       <c r="F241" t="s">
         <v>12</v>
       </c>
-      <c r="G241" t="s"/>
+      <c r="G241" t="s">
+        <v>980</v>
+      </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>843</v>
+        <v>981</v>
       </c>
       <c r="B242" t="s">
         <v>8</v>
       </c>
       <c r="C242" t="s">
-        <v>844</v>
+        <v>982</v>
       </c>
       <c r="D242" t="s">
-        <v>845</v>
+        <v>983</v>
       </c>
       <c r="E242" t="s">
         <v>33</v>
@@ -8467,20 +9253,22 @@
       <c r="F242" t="s">
         <v>12</v>
       </c>
-      <c r="G242" t="s"/>
+      <c r="G242" t="s">
+        <v>984</v>
+      </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>846</v>
+        <v>985</v>
       </c>
       <c r="B243" t="s">
         <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>847</v>
+        <v>986</v>
       </c>
       <c r="D243" t="s">
-        <v>848</v>
+        <v>987</v>
       </c>
       <c r="E243" t="s">
         <v>33</v>
@@ -8488,20 +9276,22 @@
       <c r="F243" t="s">
         <v>12</v>
       </c>
-      <c r="G243" t="s"/>
+      <c r="G243" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>849</v>
+        <v>989</v>
       </c>
       <c r="B244" t="s">
         <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>850</v>
+        <v>990</v>
       </c>
       <c r="D244" t="s">
-        <v>851</v>
+        <v>991</v>
       </c>
       <c r="E244" t="s">
         <v>33</v>
@@ -8509,20 +9299,22 @@
       <c r="F244" t="s">
         <v>12</v>
       </c>
-      <c r="G244" t="s"/>
+      <c r="G244" t="s">
+        <v>992</v>
+      </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>852</v>
+        <v>993</v>
       </c>
       <c r="B245" t="s">
         <v>8</v>
       </c>
       <c r="C245" t="s">
-        <v>853</v>
+        <v>994</v>
       </c>
       <c r="D245" t="s">
-        <v>854</v>
+        <v>995</v>
       </c>
       <c r="E245" t="s">
         <v>66</v>
@@ -8530,20 +9322,22 @@
       <c r="F245" t="s">
         <v>12</v>
       </c>
-      <c r="G245" t="s"/>
+      <c r="G245" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>855</v>
+        <v>997</v>
       </c>
       <c r="B246" t="s">
         <v>8</v>
       </c>
       <c r="C246" t="s">
-        <v>856</v>
+        <v>998</v>
       </c>
       <c r="D246" t="s">
-        <v>857</v>
+        <v>999</v>
       </c>
       <c r="E246" t="s">
         <v>66</v>
@@ -8551,20 +9345,22 @@
       <c r="F246" t="s">
         <v>12</v>
       </c>
-      <c r="G246" t="s"/>
+      <c r="G246" t="s">
+        <v>1000</v>
+      </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>858</v>
+        <v>1001</v>
       </c>
       <c r="B247" t="s">
         <v>8</v>
       </c>
       <c r="C247" t="s">
-        <v>859</v>
+        <v>1002</v>
       </c>
       <c r="D247" t="s">
-        <v>860</v>
+        <v>1003</v>
       </c>
       <c r="E247" t="s">
         <v>11</v>
@@ -8572,20 +9368,22 @@
       <c r="F247" t="s">
         <v>12</v>
       </c>
-      <c r="G247" t="s"/>
+      <c r="G247" t="s">
+        <v>1004</v>
+      </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>861</v>
+        <v>1005</v>
       </c>
       <c r="B248" t="s">
         <v>8</v>
       </c>
       <c r="C248" t="s">
-        <v>862</v>
+        <v>1006</v>
       </c>
       <c r="D248" t="s">
-        <v>863</v>
+        <v>1007</v>
       </c>
       <c r="E248" t="s">
         <v>11</v>
@@ -8593,20 +9391,22 @@
       <c r="F248" t="s">
         <v>12</v>
       </c>
-      <c r="G248" t="s"/>
+      <c r="G248" t="s">
+        <v>1008</v>
+      </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>864</v>
+        <v>1009</v>
       </c>
       <c r="B249" t="s">
         <v>8</v>
       </c>
       <c r="C249" t="s">
-        <v>865</v>
+        <v>1010</v>
       </c>
       <c r="D249" t="s">
-        <v>866</v>
+        <v>1011</v>
       </c>
       <c r="E249" t="s">
         <v>11</v>
@@ -8614,20 +9414,22 @@
       <c r="F249" t="s">
         <v>12</v>
       </c>
-      <c r="G249" t="s"/>
+      <c r="G249" t="s">
+        <v>1012</v>
+      </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>867</v>
+        <v>1013</v>
       </c>
       <c r="B250" t="s">
         <v>8</v>
       </c>
       <c r="C250" t="s">
-        <v>868</v>
+        <v>1014</v>
       </c>
       <c r="D250" t="s">
-        <v>869</v>
+        <v>1015</v>
       </c>
       <c r="E250" t="s">
         <v>33</v>
@@ -8635,20 +9437,22 @@
       <c r="F250" t="s">
         <v>12</v>
       </c>
-      <c r="G250" t="s"/>
+      <c r="G250" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>870</v>
+        <v>1017</v>
       </c>
       <c r="B251" t="s">
         <v>8</v>
       </c>
       <c r="C251" t="s">
-        <v>871</v>
+        <v>1018</v>
       </c>
       <c r="D251" t="s">
-        <v>872</v>
+        <v>1019</v>
       </c>
       <c r="E251" t="s">
         <v>66</v>
@@ -8656,20 +9460,22 @@
       <c r="F251" t="s">
         <v>12</v>
       </c>
-      <c r="G251" t="s"/>
+      <c r="G251" t="s">
+        <v>1020</v>
+      </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>873</v>
+        <v>1021</v>
       </c>
       <c r="B252" t="s">
         <v>8</v>
       </c>
       <c r="C252" t="s">
-        <v>874</v>
+        <v>1022</v>
       </c>
       <c r="D252" t="s">
-        <v>875</v>
+        <v>1023</v>
       </c>
       <c r="E252" t="s">
         <v>33</v>
@@ -8677,20 +9483,22 @@
       <c r="F252" t="s">
         <v>12</v>
       </c>
-      <c r="G252" t="s"/>
+      <c r="G252" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>876</v>
+        <v>1025</v>
       </c>
       <c r="B253" t="s">
         <v>8</v>
       </c>
       <c r="C253" t="s">
-        <v>877</v>
+        <v>1026</v>
       </c>
       <c r="D253" t="s">
-        <v>878</v>
+        <v>1027</v>
       </c>
       <c r="E253" t="s">
         <v>33</v>
@@ -8698,20 +9506,22 @@
       <c r="F253" t="s">
         <v>12</v>
       </c>
-      <c r="G253" t="s"/>
+      <c r="G253" t="s">
+        <v>1028</v>
+      </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>879</v>
+        <v>1029</v>
       </c>
       <c r="B254" t="s">
         <v>8</v>
       </c>
       <c r="C254" t="s">
-        <v>880</v>
+        <v>1030</v>
       </c>
       <c r="D254" t="s">
-        <v>881</v>
+        <v>1031</v>
       </c>
       <c r="E254" t="s">
         <v>66</v>
@@ -8719,20 +9529,22 @@
       <c r="F254" t="s">
         <v>12</v>
       </c>
-      <c r="G254" t="s"/>
+      <c r="G254" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>882</v>
+        <v>1033</v>
       </c>
       <c r="B255" t="s">
         <v>8</v>
       </c>
       <c r="C255" t="s">
-        <v>883</v>
+        <v>1034</v>
       </c>
       <c r="D255" t="s">
-        <v>884</v>
+        <v>1035</v>
       </c>
       <c r="E255" t="s">
         <v>33</v>
@@ -8740,20 +9552,22 @@
       <c r="F255" t="s">
         <v>12</v>
       </c>
-      <c r="G255" t="s"/>
+      <c r="G255" t="s">
+        <v>1036</v>
+      </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>885</v>
+        <v>1037</v>
       </c>
       <c r="B256" t="s">
         <v>8</v>
       </c>
       <c r="C256" t="s">
-        <v>886</v>
+        <v>1038</v>
       </c>
       <c r="D256" t="s">
-        <v>887</v>
+        <v>1039</v>
       </c>
       <c r="E256" t="s">
         <v>11</v>
@@ -8761,20 +9575,22 @@
       <c r="F256" t="s">
         <v>12</v>
       </c>
-      <c r="G256" t="s"/>
+      <c r="G256" t="s">
+        <v>1040</v>
+      </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>888</v>
+        <v>1041</v>
       </c>
       <c r="B257" t="s">
         <v>8</v>
       </c>
       <c r="C257" t="s">
-        <v>889</v>
+        <v>1042</v>
       </c>
       <c r="D257" t="s">
-        <v>890</v>
+        <v>1043</v>
       </c>
       <c r="E257" t="s">
         <v>166</v>
@@ -8782,39 +9598,43 @@
       <c r="F257" t="s">
         <v>12</v>
       </c>
-      <c r="G257" t="s"/>
+      <c r="G257" t="s">
+        <v>1044</v>
+      </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>891</v>
+        <v>1045</v>
       </c>
       <c r="B258" t="s">
         <v>8</v>
       </c>
       <c r="C258" t="s">
-        <v>892</v>
+        <v>1046</v>
       </c>
       <c r="D258" t="s"/>
       <c r="E258" t="s">
-        <v>893</v>
+        <v>1047</v>
       </c>
       <c r="F258" t="s">
         <v>12</v>
       </c>
-      <c r="G258" t="s"/>
+      <c r="G258" t="s">
+        <v>1048</v>
+      </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>894</v>
+        <v>1049</v>
       </c>
       <c r="B259" t="s">
         <v>8</v>
       </c>
       <c r="C259" t="s">
-        <v>895</v>
+        <v>1050</v>
       </c>
       <c r="D259" t="s">
-        <v>896</v>
+        <v>1051</v>
       </c>
       <c r="E259" t="s">
         <v>11</v>
@@ -8822,20 +9642,22 @@
       <c r="F259" t="s">
         <v>12</v>
       </c>
-      <c r="G259" t="s"/>
+      <c r="G259" t="s">
+        <v>1052</v>
+      </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>897</v>
+        <v>1053</v>
       </c>
       <c r="B260" t="s">
         <v>8</v>
       </c>
       <c r="C260" t="s">
-        <v>898</v>
+        <v>1054</v>
       </c>
       <c r="D260" t="s">
-        <v>899</v>
+        <v>1055</v>
       </c>
       <c r="E260" t="s">
         <v>33</v>
@@ -8843,20 +9665,22 @@
       <c r="F260" t="s">
         <v>75</v>
       </c>
-      <c r="G260" t="s"/>
+      <c r="G260" t="s">
+        <v>1056</v>
+      </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>900</v>
+        <v>1057</v>
       </c>
       <c r="B261" t="s">
         <v>8</v>
       </c>
       <c r="C261" t="s">
-        <v>901</v>
+        <v>1058</v>
       </c>
       <c r="D261" t="s">
-        <v>902</v>
+        <v>1059</v>
       </c>
       <c r="E261" t="s">
         <v>33</v>
@@ -8864,20 +9688,22 @@
       <c r="F261" t="s">
         <v>12</v>
       </c>
-      <c r="G261" t="s"/>
+      <c r="G261" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>903</v>
+        <v>1061</v>
       </c>
       <c r="B262" t="s">
         <v>8</v>
       </c>
       <c r="C262" t="s">
-        <v>904</v>
+        <v>1062</v>
       </c>
       <c r="D262" t="s">
-        <v>905</v>
+        <v>1063</v>
       </c>
       <c r="E262" t="s">
         <v>33</v>
@@ -8885,20 +9711,22 @@
       <c r="F262" t="s">
         <v>12</v>
       </c>
-      <c r="G262" t="s"/>
+      <c r="G262" t="s">
+        <v>1064</v>
+      </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>906</v>
+        <v>1065</v>
       </c>
       <c r="B263" t="s">
         <v>8</v>
       </c>
       <c r="C263" t="s">
-        <v>907</v>
+        <v>1066</v>
       </c>
       <c r="D263" t="s">
-        <v>908</v>
+        <v>1067</v>
       </c>
       <c r="E263" t="s">
         <v>11</v>
@@ -8906,20 +9734,22 @@
       <c r="F263" t="s">
         <v>12</v>
       </c>
-      <c r="G263" t="s"/>
+      <c r="G263" t="s">
+        <v>1068</v>
+      </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>909</v>
+        <v>1069</v>
       </c>
       <c r="B264" t="s">
         <v>8</v>
       </c>
       <c r="C264" t="s">
-        <v>910</v>
+        <v>1070</v>
       </c>
       <c r="D264" t="s">
-        <v>911</v>
+        <v>1071</v>
       </c>
       <c r="E264" t="s">
         <v>33</v>
@@ -8927,20 +9757,22 @@
       <c r="F264" t="s">
         <v>12</v>
       </c>
-      <c r="G264" t="s"/>
+      <c r="G264" t="s">
+        <v>1072</v>
+      </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>912</v>
+        <v>1073</v>
       </c>
       <c r="B265" t="s">
         <v>8</v>
       </c>
       <c r="C265" t="s">
-        <v>913</v>
+        <v>1074</v>
       </c>
       <c r="D265" t="s">
-        <v>914</v>
+        <v>1075</v>
       </c>
       <c r="E265" t="s">
         <v>33</v>
@@ -8948,20 +9780,22 @@
       <c r="F265" t="s">
         <v>12</v>
       </c>
-      <c r="G265" t="s"/>
+      <c r="G265" t="s">
+        <v>1076</v>
+      </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>915</v>
+        <v>1077</v>
       </c>
       <c r="B266" t="s">
         <v>8</v>
       </c>
       <c r="C266" t="s">
-        <v>916</v>
+        <v>1078</v>
       </c>
       <c r="D266" t="s">
-        <v>917</v>
+        <v>1079</v>
       </c>
       <c r="E266" t="s">
         <v>33</v>
@@ -8969,20 +9803,22 @@
       <c r="F266" t="s">
         <v>12</v>
       </c>
-      <c r="G266" t="s"/>
+      <c r="G266" t="s">
+        <v>1080</v>
+      </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>918</v>
+        <v>1081</v>
       </c>
       <c r="B267" t="s">
         <v>8</v>
       </c>
       <c r="C267" t="s">
-        <v>919</v>
+        <v>1082</v>
       </c>
       <c r="D267" t="s">
-        <v>920</v>
+        <v>1083</v>
       </c>
       <c r="E267" t="s">
         <v>33</v>
@@ -8990,41 +9826,45 @@
       <c r="F267" t="s">
         <v>75</v>
       </c>
-      <c r="G267" t="s"/>
+      <c r="G267" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>921</v>
+        <v>1085</v>
       </c>
       <c r="B268" t="s">
         <v>8</v>
       </c>
       <c r="C268" t="s">
-        <v>922</v>
+        <v>1086</v>
       </c>
       <c r="D268" t="s">
-        <v>923</v>
+        <v>1087</v>
       </c>
       <c r="E268" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="F268" t="s">
         <v>12</v>
       </c>
-      <c r="G268" t="s"/>
+      <c r="G268" t="s">
+        <v>1088</v>
+      </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
-        <v>924</v>
+        <v>1089</v>
       </c>
       <c r="B269" t="s">
         <v>8</v>
       </c>
       <c r="C269" t="s">
-        <v>925</v>
+        <v>1090</v>
       </c>
       <c r="D269" t="s">
-        <v>926</v>
+        <v>1091</v>
       </c>
       <c r="E269" t="s">
         <v>33</v>
@@ -9032,20 +9872,22 @@
       <c r="F269" t="s">
         <v>12</v>
       </c>
-      <c r="G269" t="s"/>
+      <c r="G269" t="s">
+        <v>1092</v>
+      </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>927</v>
+        <v>1093</v>
       </c>
       <c r="B270" t="s">
         <v>8</v>
       </c>
       <c r="C270" t="s">
-        <v>928</v>
+        <v>1094</v>
       </c>
       <c r="D270" t="s">
-        <v>929</v>
+        <v>1095</v>
       </c>
       <c r="E270" t="s">
         <v>66</v>
@@ -9053,20 +9895,22 @@
       <c r="F270" t="s">
         <v>12</v>
       </c>
-      <c r="G270" t="s"/>
+      <c r="G270" t="s">
+        <v>1096</v>
+      </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>930</v>
+        <v>1097</v>
       </c>
       <c r="B271" t="s">
         <v>8</v>
       </c>
       <c r="C271" t="s">
-        <v>931</v>
+        <v>1098</v>
       </c>
       <c r="D271" t="s">
-        <v>932</v>
+        <v>1099</v>
       </c>
       <c r="E271" t="s">
         <v>11</v>
@@ -9078,16 +9922,16 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>933</v>
+        <v>1100</v>
       </c>
       <c r="B272" t="s">
         <v>8</v>
       </c>
       <c r="C272" t="s">
-        <v>934</v>
+        <v>1101</v>
       </c>
       <c r="D272" t="s">
-        <v>935</v>
+        <v>1102</v>
       </c>
       <c r="E272" t="s">
         <v>33</v>
@@ -9095,20 +9939,22 @@
       <c r="F272" t="s">
         <v>12</v>
       </c>
-      <c r="G272" t="s"/>
+      <c r="G272" t="s">
+        <v>1103</v>
+      </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" t="s">
-        <v>936</v>
+        <v>1104</v>
       </c>
       <c r="B273" t="s">
         <v>8</v>
       </c>
       <c r="C273" t="s">
-        <v>937</v>
+        <v>1105</v>
       </c>
       <c r="D273" t="s">
-        <v>938</v>
+        <v>1106</v>
       </c>
       <c r="E273" t="s">
         <v>11</v>
@@ -9116,28 +9962,32 @@
       <c r="F273" t="s">
         <v>12</v>
       </c>
-      <c r="G273" t="s"/>
+      <c r="G273" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
-        <v>939</v>
+        <v>1108</v>
       </c>
       <c r="B274" t="s">
         <v>8</v>
       </c>
       <c r="C274" t="s">
-        <v>940</v>
+        <v>1109</v>
       </c>
       <c r="D274" t="s">
-        <v>941</v>
+        <v>1110</v>
       </c>
       <c r="E274" t="s">
         <v>66</v>
       </c>
       <c r="F274" t="s">
-        <v>713</v>
-      </c>
-      <c r="G274" t="s"/>
+        <v>810</v>
+      </c>
+      <c r="G274" t="s">
+        <v>1111</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
